--- a/src/Data/Inputs_archive.xlsx
+++ b/src/Data/Inputs_archive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CD352B-3CE9-FA47-9699-2BA5BAB8CA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C486E45-25F5-B545-9A51-A2C07ED6EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="7" activeTab="18" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -1674,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B5B756D-667E-7B49-90E3-77B102644E28}">
   <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
       <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
@@ -4673,7 +4673,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4783,7 +4783,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -5968,7 +5968,7 @@
   <dimension ref="A1:BT52"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6078,7 +6078,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="72">
         <v>0</v>
@@ -9487,8 +9487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F83964-0BC2-7746-B92E-91385409D085}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9578,7 +9578,7 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>

--- a/src/Data/Inputs_archive.xlsx
+++ b/src/Data/Inputs_archive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C486E45-25F5-B545-9A51-A2C07ED6EA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{474E3F29-CE1A-4147-8AA4-851618FBDEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" firstSheet="7" activeTab="18" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="18" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
@@ -29,9 +29,9 @@
     <sheet name="Figure 9_pyx" sheetId="13" r:id="rId14"/>
     <sheet name="Figure 9_neon" sheetId="14" r:id="rId15"/>
     <sheet name="Libarkin" sheetId="15" r:id="rId16"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId17"/>
-    <sheet name="Figure 10_modeled curves" sheetId="16" r:id="rId18"/>
-    <sheet name="Dunai" sheetId="17" r:id="rId19"/>
+    <sheet name="Figure 10_modeled curves" sheetId="16" r:id="rId17"/>
+    <sheet name="Dunai" sheetId="17" r:id="rId18"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$77,Active!$B$82,Active!$B$84,Active!$B$85</definedName>
@@ -180,6 +180,7 @@
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -200,7 +201,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="295">
   <si>
     <t>Sample Name</t>
   </si>
@@ -706,6 +707,396 @@
   </si>
   <si>
     <t>A10</t>
+  </si>
+  <si>
+    <t>ACKERT</t>
+  </si>
+  <si>
+    <t>AMIDON</t>
+  </si>
+  <si>
+    <t>ID2</t>
+  </si>
+  <si>
+    <t>ID4</t>
+  </si>
+  <si>
+    <t>ID5</t>
+  </si>
+  <si>
+    <t>ID6</t>
+  </si>
+  <si>
+    <t>ID9</t>
+  </si>
+  <si>
+    <t>ID11</t>
+  </si>
+  <si>
+    <t>EurOL</t>
+  </si>
+  <si>
+    <t>SI47</t>
+  </si>
+  <si>
+    <t>SI41</t>
+  </si>
+  <si>
+    <t>HawaiiOl</t>
+  </si>
+  <si>
+    <t>ML1A</t>
+  </si>
+  <si>
+    <t>ML1B</t>
+  </si>
+  <si>
+    <t>ML1C</t>
+  </si>
+  <si>
+    <t>ML5A</t>
+  </si>
+  <si>
+    <t>MK4</t>
+  </si>
+  <si>
+    <t>Pocolli</t>
+  </si>
+  <si>
+    <t>TUN-1</t>
+  </si>
+  <si>
+    <t>TUN-2</t>
+  </si>
+  <si>
+    <t>TUN-3</t>
+  </si>
+  <si>
+    <t>TUN-4</t>
+  </si>
+  <si>
+    <t>TUN-5</t>
+  </si>
+  <si>
+    <t>TU-100</t>
+  </si>
+  <si>
+    <t>TU-101</t>
+  </si>
+  <si>
+    <t>TU-102A</t>
+  </si>
+  <si>
+    <t>TU-102B</t>
+  </si>
+  <si>
+    <t>TU-103</t>
+  </si>
+  <si>
+    <t>TU-105</t>
+  </si>
+  <si>
+    <t>CERLING</t>
+  </si>
+  <si>
+    <t>DUNAI</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TA2</t>
+  </si>
+  <si>
+    <t>TA3</t>
+  </si>
+  <si>
+    <t>AFB1</t>
+  </si>
+  <si>
+    <t>AFB2</t>
+  </si>
+  <si>
+    <t>AFB3</t>
+  </si>
+  <si>
+    <t>AFB4</t>
+  </si>
+  <si>
+    <t>FOEKEN</t>
+  </si>
+  <si>
+    <t>FG05-03-AA1</t>
+  </si>
+  <si>
+    <t>FG05-04-AA2</t>
+  </si>
+  <si>
+    <t>FG05-05-AA3</t>
+  </si>
+  <si>
+    <t>FG05-06-AA4</t>
+  </si>
+  <si>
+    <t>FG05-07-AA5</t>
+  </si>
+  <si>
+    <t>FG05-08-AA6</t>
+  </si>
+  <si>
+    <t>FG05-09-AA7</t>
+  </si>
+  <si>
+    <t>FG05-10-AA8</t>
+  </si>
+  <si>
+    <t>FG05-11-AA9</t>
+  </si>
+  <si>
+    <t>FG05-12-AA10</t>
+  </si>
+  <si>
+    <t>FG05-13-AA11</t>
+  </si>
+  <si>
+    <t>KurzHawaii</t>
+  </si>
+  <si>
+    <t>KS87-47</t>
+  </si>
+  <si>
+    <t>KS87-03</t>
+  </si>
+  <si>
+    <t>KS87-14</t>
+  </si>
+  <si>
+    <t>KS87-15</t>
+  </si>
+  <si>
+    <t>T87-4</t>
+  </si>
+  <si>
+    <t>KS87-31</t>
+  </si>
+  <si>
+    <t>T87-8</t>
+  </si>
+  <si>
+    <t>KS87-5</t>
+  </si>
+  <si>
+    <t>KS87-4</t>
+  </si>
+  <si>
+    <t>KS87-43</t>
+  </si>
+  <si>
+    <t>KS87-13</t>
+  </si>
+  <si>
+    <t>KS87-46</t>
+  </si>
+  <si>
+    <t>KS87-48</t>
+  </si>
+  <si>
+    <t>KS87-42</t>
+  </si>
+  <si>
+    <t>KS87-01C</t>
+  </si>
+  <si>
+    <t>KS87-08</t>
+  </si>
+  <si>
+    <t>KS87-07</t>
+  </si>
+  <si>
+    <t>RM88-9490</t>
+  </si>
+  <si>
+    <t>KIPUKA</t>
+  </si>
+  <si>
+    <t>09-HAW-17-ol</t>
+  </si>
+  <si>
+    <t>09-HAW-18-ol</t>
+  </si>
+  <si>
+    <t>09-HAW-19-ol</t>
+  </si>
+  <si>
+    <t>09-HAW-20-ol</t>
+  </si>
+  <si>
+    <t>09-HAW-21-ol</t>
+  </si>
+  <si>
+    <t>09-HAW-22-ol</t>
+  </si>
+  <si>
+    <t>LICCARDI</t>
+  </si>
+  <si>
+    <t>IC02-16-19084</t>
+  </si>
+  <si>
+    <t>IC02-17-17338</t>
+  </si>
+  <si>
+    <t>IC02-19-19323</t>
+  </si>
+  <si>
+    <t>IC02-20-16373</t>
+  </si>
+  <si>
+    <t>LEIT-1-1067</t>
+  </si>
+  <si>
+    <t>LEIT-2-1374</t>
+  </si>
+  <si>
+    <t>LEIT-3-1191</t>
+  </si>
+  <si>
+    <t>LEIT-4-1131</t>
+  </si>
+  <si>
+    <t>LEIT-5-1315</t>
+  </si>
+  <si>
+    <t>LEIT-5-1129</t>
+  </si>
+  <si>
+    <t>BÚR-1-2410</t>
+  </si>
+  <si>
+    <t>BÚR-2-2401</t>
+  </si>
+  <si>
+    <t>BÚR-3-2713</t>
+  </si>
+  <si>
+    <t>BÚR-3-2780</t>
+  </si>
+  <si>
+    <t>BÚR-4-2585</t>
+  </si>
+  <si>
+    <t>BÚR-4-2854</t>
+  </si>
+  <si>
+    <t>BÚR-5-2732</t>
+  </si>
+  <si>
+    <t>BÚR-6-2792</t>
+  </si>
+  <si>
+    <t>IC02-1-18787</t>
+  </si>
+  <si>
+    <t>IC02-7-10543</t>
+  </si>
+  <si>
+    <t>IC02-10-25131</t>
+  </si>
+  <si>
+    <t>IC02-11-17430</t>
+  </si>
+  <si>
+    <t>LICCARDIWUSOL</t>
+  </si>
+  <si>
+    <t>Y1-2799</t>
+  </si>
+  <si>
+    <t>Y2-2742</t>
+  </si>
+  <si>
+    <t>Y3-2450</t>
+  </si>
+  <si>
+    <t>Y4-2833</t>
+  </si>
+  <si>
+    <t>Y5-2812</t>
+  </si>
+  <si>
+    <t>B1-2676</t>
+  </si>
+  <si>
+    <t>B2-3018</t>
+  </si>
+  <si>
+    <t>B2-2674</t>
+  </si>
+  <si>
+    <t>B3-3038</t>
+  </si>
+  <si>
+    <t>B3-3039</t>
+  </si>
+  <si>
+    <t>B4-2891</t>
+  </si>
+  <si>
+    <t>B5-2776</t>
+  </si>
+  <si>
+    <t>C1-2098</t>
+  </si>
+  <si>
+    <t>C2-0914</t>
+  </si>
+  <si>
+    <t>C2-3004</t>
+  </si>
+  <si>
+    <t>C3-2830</t>
+  </si>
+  <si>
+    <t>C4-2906</t>
+  </si>
+  <si>
+    <t>C5-2877</t>
+  </si>
+  <si>
+    <t>LB1-0886</t>
+  </si>
+  <si>
+    <t>LB3-1444</t>
+  </si>
+  <si>
+    <t>POREDA</t>
+  </si>
+  <si>
+    <t>KurzOL</t>
+  </si>
+  <si>
+    <t>TH-13</t>
+  </si>
+  <si>
+    <t>05-TAB-02</t>
+  </si>
+  <si>
+    <t>05-TAB-04</t>
+  </si>
+  <si>
+    <t>05-TAB-01</t>
+  </si>
+  <si>
+    <t>05-TAB-05</t>
+  </si>
+  <si>
+    <t>05-TAB-06</t>
+  </si>
+  <si>
+    <t>05-TAB-03</t>
+  </si>
+  <si>
+    <t>05-TAB-07</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,6 +1748,7 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1376,9 +1768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1416,7 +1808,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1522,7 +1914,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1664,7 +2056,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4673,7 +5065,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A2" sqref="A2:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4783,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -5968,7 +6360,7 @@
   <dimension ref="A1:BT52"/>
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6078,7 +6470,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="72">
         <v>0</v>
@@ -8013,18 +8405,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A524E2-E22F-7441-95F8-98D9A5590802}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B72D24B-A563-F940-B429-8247949C90E5}">
   <dimension ref="A1:R84"/>
   <sheetViews>
@@ -9483,12 +9863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F83964-0BC2-7746-B92E-91385409D085}">
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9578,7 +9958,7 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -10071,6 +10451,5816 @@
       </c>
       <c r="K17" s="13">
         <v>400000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C36F8-1236-CF4F-AE99-245EC5C39423}">
+  <dimension ref="A1:S171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-46.700099999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-70.750299999999996</v>
+      </c>
+      <c r="D3" s="4">
+        <v>530</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>24300000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>400000</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>4</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-46.700299999999999</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-70.746799999999993</v>
+      </c>
+      <c r="D4" s="6">
+        <v>530</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>25100000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-46.619900000000001</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-70.796700000000001</v>
+      </c>
+      <c r="D5" s="8">
+        <v>400</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>21800000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-46.619599999999998</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-70.795199999999994</v>
+      </c>
+      <c r="D6" s="4">
+        <v>400</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>22000000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>600000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-46.5914</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-70.675200000000004</v>
+      </c>
+      <c r="D7" s="6">
+        <v>380</v>
+      </c>
+      <c r="E7" s="7">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>21500000</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D8" s="8">
+        <v>900</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>19500000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D9" s="4">
+        <v>900</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>19100000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>200000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D10" s="6">
+        <v>905</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>20500000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C11" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D11" s="8">
+        <v>905</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>18800000</v>
+      </c>
+      <c r="K11" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B14">
+        <v>42.597369999999998</v>
+      </c>
+      <c r="C14">
+        <v>114.42984</v>
+      </c>
+      <c r="D14">
+        <v>991</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
+      </c>
+      <c r="F14">
+        <v>2.7</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>4700000</v>
+      </c>
+      <c r="K14">
+        <v>400000</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15">
+        <v>42.598289999999999</v>
+      </c>
+      <c r="C15">
+        <v>114.43138999999999</v>
+      </c>
+      <c r="D15">
+        <v>980</v>
+      </c>
+      <c r="E15">
+        <v>4.5</v>
+      </c>
+      <c r="F15">
+        <v>2.7</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>4800000</v>
+      </c>
+      <c r="K15">
+        <v>400000</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16">
+        <v>42.598289999999999</v>
+      </c>
+      <c r="C16">
+        <v>114.43138999999999</v>
+      </c>
+      <c r="D16">
+        <v>980</v>
+      </c>
+      <c r="E16">
+        <v>4.5</v>
+      </c>
+      <c r="F16">
+        <v>2.7</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>4700000</v>
+      </c>
+      <c r="K16">
+        <v>400000</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17">
+        <v>42.600180000000002</v>
+      </c>
+      <c r="C17">
+        <v>114.43277</v>
+      </c>
+      <c r="D17">
+        <v>978</v>
+      </c>
+      <c r="E17">
+        <v>4.5</v>
+      </c>
+      <c r="F17">
+        <v>2.7</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>5000000</v>
+      </c>
+      <c r="K17">
+        <v>400000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18">
+        <v>42.600259999999999</v>
+      </c>
+      <c r="C18">
+        <v>114.46827</v>
+      </c>
+      <c r="D18">
+        <v>1005</v>
+      </c>
+      <c r="E18">
+        <v>4.5</v>
+      </c>
+      <c r="F18">
+        <v>2.7</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>5000000</v>
+      </c>
+      <c r="K18">
+        <v>600000</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19">
+        <v>42.62359</v>
+      </c>
+      <c r="C19">
+        <v>114.51430000000001</v>
+      </c>
+      <c r="D19">
+        <v>960</v>
+      </c>
+      <c r="E19">
+        <v>4.5</v>
+      </c>
+      <c r="F19">
+        <v>2.7</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>4200000</v>
+      </c>
+      <c r="K19">
+        <v>600000</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="R20" s="3"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="R21" s="3"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22">
+        <v>37.605800000000002</v>
+      </c>
+      <c r="C22">
+        <v>14.831300000000001</v>
+      </c>
+      <c r="D22">
+        <v>190</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>6340000</v>
+      </c>
+      <c r="K22">
+        <v>320000</v>
+      </c>
+      <c r="M22">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>175</v>
+      </c>
+      <c r="B23">
+        <v>37.848500000000001</v>
+      </c>
+      <c r="C23">
+        <v>14.835000000000001</v>
+      </c>
+      <c r="D23">
+        <v>820</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>6590000</v>
+      </c>
+      <c r="K23">
+        <v>220000</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <v>19.061</v>
+      </c>
+      <c r="C26">
+        <v>-155.55520000000001</v>
+      </c>
+      <c r="D26">
+        <v>80</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>720000</v>
+      </c>
+      <c r="K26">
+        <v>80000</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27">
+        <v>19.053999999999998</v>
+      </c>
+      <c r="C27">
+        <v>-155.55420000000001</v>
+      </c>
+      <c r="D27">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>840000</v>
+      </c>
+      <c r="K27">
+        <v>80000</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>179</v>
+      </c>
+      <c r="B28">
+        <v>19.053999999999998</v>
+      </c>
+      <c r="C28">
+        <v>-155.5548</v>
+      </c>
+      <c r="D28">
+        <v>60</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>840000</v>
+      </c>
+      <c r="K28">
+        <v>130000</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>19.435300000000002</v>
+      </c>
+      <c r="C29">
+        <v>-155.39769999999999</v>
+      </c>
+      <c r="D29">
+        <v>870</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>240000</v>
+      </c>
+      <c r="K29">
+        <v>40000</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30">
+        <v>19.988700000000001</v>
+      </c>
+      <c r="C30">
+        <v>-155.66669999999999</v>
+      </c>
+      <c r="D30">
+        <v>840</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>27930000</v>
+      </c>
+      <c r="K30">
+        <v>760000</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>183</v>
+      </c>
+      <c r="B33">
+        <v>-19.890350000000002</v>
+      </c>
+      <c r="C33">
+        <v>-67.619979999999998</v>
+      </c>
+      <c r="D33">
+        <v>3791</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2.7</v>
+      </c>
+      <c r="G33">
+        <v>0.999</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="102">
+        <v>15300000</v>
+      </c>
+      <c r="K33" s="102">
+        <v>600000</v>
+      </c>
+      <c r="M33">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34">
+        <v>-19.88982</v>
+      </c>
+      <c r="C34">
+        <v>-67.618830000000003</v>
+      </c>
+      <c r="D34">
+        <v>3794</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>2.7</v>
+      </c>
+      <c r="G34">
+        <v>0.998</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34" s="102">
+        <v>15200000</v>
+      </c>
+      <c r="K34" s="102">
+        <v>400000</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35">
+        <v>-19.89</v>
+      </c>
+      <c r="C35">
+        <v>-67.618859999999998</v>
+      </c>
+      <c r="D35">
+        <v>3792</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>2.7</v>
+      </c>
+      <c r="G35">
+        <v>0.999</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35" s="102">
+        <v>15900000</v>
+      </c>
+      <c r="K35" s="102">
+        <v>500000</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B36">
+        <v>-19.88983</v>
+      </c>
+      <c r="C36">
+        <v>-67.619039999999998</v>
+      </c>
+      <c r="D36">
+        <v>3794</v>
+      </c>
+      <c r="E36">
+        <v>5</v>
+      </c>
+      <c r="F36">
+        <v>2.7</v>
+      </c>
+      <c r="G36">
+        <v>0.999</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="102">
+        <v>14600000</v>
+      </c>
+      <c r="K36" s="102">
+        <v>400000</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37">
+        <v>-19.89087</v>
+      </c>
+      <c r="C37">
+        <v>-67.619020000000006</v>
+      </c>
+      <c r="D37">
+        <v>3784</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>2.7</v>
+      </c>
+      <c r="G37">
+        <v>0.999</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" s="102">
+        <v>15100000</v>
+      </c>
+      <c r="K37" s="102">
+        <v>500000</v>
+      </c>
+      <c r="R37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>188</v>
+      </c>
+      <c r="B38">
+        <v>-19.885670000000001</v>
+      </c>
+      <c r="C38">
+        <v>-67.619919999999993</v>
+      </c>
+      <c r="D38">
+        <v>3854</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>2.7</v>
+      </c>
+      <c r="G38">
+        <v>0.996</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38" s="102">
+        <v>14700000</v>
+      </c>
+      <c r="K38" s="102">
+        <v>500000</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39">
+        <v>-19.885670000000001</v>
+      </c>
+      <c r="C39">
+        <v>-67.619919999999993</v>
+      </c>
+      <c r="D39">
+        <v>3854</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>2.7</v>
+      </c>
+      <c r="G39">
+        <v>0.996</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" s="102">
+        <v>14700000</v>
+      </c>
+      <c r="K39" s="102">
+        <v>700000</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40">
+        <v>-19.886659999999999</v>
+      </c>
+      <c r="C40">
+        <v>-67.619720000000001</v>
+      </c>
+      <c r="D40">
+        <v>3838</v>
+      </c>
+      <c r="E40">
+        <v>5</v>
+      </c>
+      <c r="F40">
+        <v>2.7</v>
+      </c>
+      <c r="G40">
+        <v>0.996</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40" s="102">
+        <v>16300000</v>
+      </c>
+      <c r="K40" s="102">
+        <v>400000</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>191</v>
+      </c>
+      <c r="B41">
+        <v>-19.886659999999999</v>
+      </c>
+      <c r="C41">
+        <v>-67.619720000000001</v>
+      </c>
+      <c r="D41">
+        <v>3838</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>2.7</v>
+      </c>
+      <c r="G41">
+        <v>0.996</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" s="102">
+        <v>16300000</v>
+      </c>
+      <c r="K41" s="102">
+        <v>500000</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42">
+        <v>-19.88785</v>
+      </c>
+      <c r="C42">
+        <v>-67.619159999999994</v>
+      </c>
+      <c r="D42">
+        <v>3819</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>2.7</v>
+      </c>
+      <c r="G42">
+        <v>0.997</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="102">
+        <v>14500000</v>
+      </c>
+      <c r="K42" s="102">
+        <v>600000</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43">
+        <v>-19.889530000000001</v>
+      </c>
+      <c r="C43">
+        <v>-67.618830000000003</v>
+      </c>
+      <c r="D43">
+        <v>3797</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>2.7</v>
+      </c>
+      <c r="G43">
+        <v>0.998</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43" s="102">
+        <v>15400000</v>
+      </c>
+      <c r="K43" s="102">
+        <v>700000</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>10596</v>
+      </c>
+      <c r="B46">
+        <v>44.262999999999998</v>
+      </c>
+      <c r="C46">
+        <v>-121.7889</v>
+      </c>
+      <c r="D46">
+        <v>1561</v>
+      </c>
+      <c r="E46">
+        <v>1E-4</v>
+      </c>
+      <c r="F46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>860000</v>
+      </c>
+      <c r="K46">
+        <v>140000</v>
+      </c>
+      <c r="M46">
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>10596</v>
+      </c>
+      <c r="B47">
+        <v>44.262999999999998</v>
+      </c>
+      <c r="C47">
+        <v>-121.7889</v>
+      </c>
+      <c r="D47">
+        <v>1561</v>
+      </c>
+      <c r="E47">
+        <v>1E-4</v>
+      </c>
+      <c r="F47">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>640000</v>
+      </c>
+      <c r="K47">
+        <v>110000</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10581</v>
+      </c>
+      <c r="B48">
+        <v>41.767800000000001</v>
+      </c>
+      <c r="C48">
+        <v>-121.54940000000001</v>
+      </c>
+      <c r="D48">
+        <v>1335</v>
+      </c>
+      <c r="E48">
+        <v>1E-4</v>
+      </c>
+      <c r="F48">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>970000</v>
+      </c>
+      <c r="K48">
+        <v>70000</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>10586</v>
+      </c>
+      <c r="B49">
+        <v>41.3294</v>
+      </c>
+      <c r="C49">
+        <v>-121.6067</v>
+      </c>
+      <c r="D49">
+        <v>1198</v>
+      </c>
+      <c r="E49">
+        <v>1E-4</v>
+      </c>
+      <c r="F49">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>3130000</v>
+      </c>
+      <c r="K49">
+        <v>150000</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>8007</v>
+      </c>
+      <c r="B50">
+        <v>38.934699999999999</v>
+      </c>
+      <c r="C50">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D50">
+        <v>1455</v>
+      </c>
+      <c r="E50">
+        <v>1E-4</v>
+      </c>
+      <c r="F50">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>6250000</v>
+      </c>
+      <c r="K50">
+        <v>130000</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>9352</v>
+      </c>
+      <c r="B51">
+        <v>38.933300000000003</v>
+      </c>
+      <c r="C51">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D51">
+        <v>1455</v>
+      </c>
+      <c r="E51">
+        <v>1E-4</v>
+      </c>
+      <c r="F51">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>6460000</v>
+      </c>
+      <c r="K51">
+        <v>150000</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>9352</v>
+      </c>
+      <c r="B52">
+        <v>38.933300000000003</v>
+      </c>
+      <c r="C52">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D52">
+        <v>1455</v>
+      </c>
+      <c r="E52">
+        <v>1E-4</v>
+      </c>
+      <c r="F52">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>6310000</v>
+      </c>
+      <c r="K52">
+        <v>180000</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>9352</v>
+      </c>
+      <c r="B53">
+        <v>38.933300000000003</v>
+      </c>
+      <c r="C53">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D53">
+        <v>1455</v>
+      </c>
+      <c r="E53">
+        <v>1E-4</v>
+      </c>
+      <c r="F53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>6440000</v>
+      </c>
+      <c r="K53">
+        <v>150000</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>9354</v>
+      </c>
+      <c r="B54">
+        <v>38.933300000000003</v>
+      </c>
+      <c r="C54">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D54">
+        <v>1455</v>
+      </c>
+      <c r="E54">
+        <v>1E-4</v>
+      </c>
+      <c r="F54">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>6490000</v>
+      </c>
+      <c r="K54">
+        <v>210000</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>9354</v>
+      </c>
+      <c r="B55">
+        <v>38.933300000000003</v>
+      </c>
+      <c r="C55">
+        <v>-112.52500000000001</v>
+      </c>
+      <c r="D55">
+        <v>1455</v>
+      </c>
+      <c r="E55">
+        <v>1E-4</v>
+      </c>
+      <c r="F55">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>6190000</v>
+      </c>
+      <c r="K55">
+        <v>130000</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9504</v>
+      </c>
+      <c r="B56">
+        <v>42.855600000000003</v>
+      </c>
+      <c r="C56">
+        <v>-112.41249999999999</v>
+      </c>
+      <c r="D56">
+        <v>1380</v>
+      </c>
+      <c r="E56">
+        <v>1E-4</v>
+      </c>
+      <c r="F56">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>5930000</v>
+      </c>
+      <c r="K56">
+        <v>170000</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>9504</v>
+      </c>
+      <c r="B57">
+        <v>42.855600000000003</v>
+      </c>
+      <c r="C57">
+        <v>-112.41249999999999</v>
+      </c>
+      <c r="D57">
+        <v>1380</v>
+      </c>
+      <c r="E57">
+        <v>1E-4</v>
+      </c>
+      <c r="F57">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>6200000</v>
+      </c>
+      <c r="K57">
+        <v>310000</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>9504</v>
+      </c>
+      <c r="B58">
+        <v>42.855600000000003</v>
+      </c>
+      <c r="C58">
+        <v>-112.41249999999999</v>
+      </c>
+      <c r="D58">
+        <v>1380</v>
+      </c>
+      <c r="E58">
+        <v>1E-4</v>
+      </c>
+      <c r="F58">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>6250000</v>
+      </c>
+      <c r="K58">
+        <v>220000</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>196</v>
+      </c>
+      <c r="B61">
+        <v>29.012</v>
+      </c>
+      <c r="C61">
+        <v>-13.539099999999999</v>
+      </c>
+      <c r="D61">
+        <v>197</v>
+      </c>
+      <c r="E61">
+        <v>0.01</v>
+      </c>
+      <c r="F61">
+        <v>2.8</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61" s="102">
+        <v>13700000</v>
+      </c>
+      <c r="K61" s="102">
+        <v>2600000</v>
+      </c>
+      <c r="M61">
+        <v>3</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>1</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62">
+        <v>29.012</v>
+      </c>
+      <c r="C62">
+        <v>-13.539099999999999</v>
+      </c>
+      <c r="D62">
+        <v>197</v>
+      </c>
+      <c r="E62">
+        <v>0.01</v>
+      </c>
+      <c r="F62">
+        <v>2.8</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" s="102">
+        <v>14700000</v>
+      </c>
+      <c r="K62" s="102">
+        <v>1900000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63">
+        <v>29.012</v>
+      </c>
+      <c r="C63">
+        <v>-13.539099999999999</v>
+      </c>
+      <c r="D63">
+        <v>197</v>
+      </c>
+      <c r="E63">
+        <v>0.01</v>
+      </c>
+      <c r="F63">
+        <v>2.8</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" s="102">
+        <v>14300000</v>
+      </c>
+      <c r="K63" s="102">
+        <v>1000000</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B64">
+        <v>28.919</v>
+      </c>
+      <c r="C64">
+        <v>-13.827999999999999</v>
+      </c>
+      <c r="D64">
+        <v>35</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>2.8</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" s="102">
+        <v>24100000</v>
+      </c>
+      <c r="K64" s="102">
+        <v>1500000</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>200</v>
+      </c>
+      <c r="B65">
+        <v>28.919</v>
+      </c>
+      <c r="C65">
+        <v>-13.827999999999999</v>
+      </c>
+      <c r="D65">
+        <v>35</v>
+      </c>
+      <c r="E65">
+        <v>0.01</v>
+      </c>
+      <c r="F65">
+        <v>2.8</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" s="102">
+        <v>23200000</v>
+      </c>
+      <c r="K65" s="102">
+        <v>1400000</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>201</v>
+      </c>
+      <c r="B66">
+        <v>28.919</v>
+      </c>
+      <c r="C66">
+        <v>-13.827999999999999</v>
+      </c>
+      <c r="D66">
+        <v>35</v>
+      </c>
+      <c r="E66">
+        <v>0.01</v>
+      </c>
+      <c r="F66">
+        <v>2.8</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" s="102">
+        <v>22300000</v>
+      </c>
+      <c r="K66" s="102">
+        <v>2000000</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67">
+        <v>28.919</v>
+      </c>
+      <c r="C67">
+        <v>-13.827999999999999</v>
+      </c>
+      <c r="D67">
+        <v>35</v>
+      </c>
+      <c r="E67">
+        <v>0.01</v>
+      </c>
+      <c r="F67">
+        <v>2.8</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" s="102">
+        <v>1.4800000000000001E-5</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67" s="102">
+        <v>23900000</v>
+      </c>
+      <c r="K67" s="102">
+        <v>2500000</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>204</v>
+      </c>
+      <c r="B70">
+        <v>14.894444439999999</v>
+      </c>
+      <c r="C70">
+        <v>24.478805560000001</v>
+      </c>
+      <c r="D70">
+        <v>260</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>2.37</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10100000</v>
+      </c>
+      <c r="K70">
+        <v>460000</v>
+      </c>
+      <c r="M70">
+        <v>3</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>4</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>205</v>
+      </c>
+      <c r="B71">
+        <v>14.894444439999999</v>
+      </c>
+      <c r="C71">
+        <v>24.478805560000001</v>
+      </c>
+      <c r="D71">
+        <v>260</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>2.37</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>10900000</v>
+      </c>
+      <c r="K71">
+        <v>430000</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>206</v>
+      </c>
+      <c r="B72">
+        <v>14.89255556</v>
+      </c>
+      <c r="C72">
+        <v>24.479166670000001</v>
+      </c>
+      <c r="D72">
+        <v>242</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>2.37</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>9660000</v>
+      </c>
+      <c r="K72">
+        <v>520000</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73">
+        <v>14.89255556</v>
+      </c>
+      <c r="C73">
+        <v>24.479166670000001</v>
+      </c>
+      <c r="D73">
+        <v>238</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>2.37</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>10900000</v>
+      </c>
+      <c r="K73">
+        <v>790000</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74">
+        <v>14.89255556</v>
+      </c>
+      <c r="C74">
+        <v>24.479166670000001</v>
+      </c>
+      <c r="D74">
+        <v>237</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>2.37</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>9150000</v>
+      </c>
+      <c r="K74">
+        <v>880000</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>209</v>
+      </c>
+      <c r="B75">
+        <v>14.89030556</v>
+      </c>
+      <c r="C75">
+        <v>24.481722220000002</v>
+      </c>
+      <c r="D75">
+        <v>207</v>
+      </c>
+      <c r="E75">
+        <v>5</v>
+      </c>
+      <c r="F75">
+        <v>2.37</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>8970000</v>
+      </c>
+      <c r="K75">
+        <v>490000</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76">
+        <v>14.89008333</v>
+      </c>
+      <c r="C76">
+        <v>24.482027779999999</v>
+      </c>
+      <c r="D76">
+        <v>203</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76">
+        <v>2.37</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>8400000</v>
+      </c>
+      <c r="K76">
+        <v>240000</v>
+      </c>
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77">
+        <v>14.89008333</v>
+      </c>
+      <c r="C77">
+        <v>24.482027779999999</v>
+      </c>
+      <c r="D77">
+        <v>200</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>2.37</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>9210000</v>
+      </c>
+      <c r="K77">
+        <v>650000</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B78">
+        <v>14.89008333</v>
+      </c>
+      <c r="C78">
+        <v>24.482027779999999</v>
+      </c>
+      <c r="D78">
+        <v>200</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>2.37</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>6700000</v>
+      </c>
+      <c r="K78">
+        <v>310000</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79">
+        <v>14.89008333</v>
+      </c>
+      <c r="C79">
+        <v>24.482027779999999</v>
+      </c>
+      <c r="D79">
+        <v>200</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>2.37</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>9320000</v>
+      </c>
+      <c r="K79">
+        <v>820000</v>
+      </c>
+      <c r="R79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>214</v>
+      </c>
+      <c r="B80">
+        <v>14.89008333</v>
+      </c>
+      <c r="C80">
+        <v>24.482027779999999</v>
+      </c>
+      <c r="D80">
+        <v>200</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>2.37</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>8610000</v>
+      </c>
+      <c r="K80">
+        <v>720000</v>
+      </c>
+      <c r="R80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>216</v>
+      </c>
+      <c r="B83">
+        <v>19.7</v>
+      </c>
+      <c r="C83">
+        <v>-155.9778</v>
+      </c>
+      <c r="D83">
+        <v>2327</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+      <c r="F83">
+        <v>2.8</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83" s="102">
+        <v>470000</v>
+      </c>
+      <c r="K83" s="102">
+        <v>161000</v>
+      </c>
+      <c r="M83">
+        <v>3</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>4</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>217</v>
+      </c>
+      <c r="B84">
+        <v>19.166699999999999</v>
+      </c>
+      <c r="C84">
+        <v>-155.5333</v>
+      </c>
+      <c r="D84">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>2.5</v>
+      </c>
+      <c r="F84">
+        <v>2.8</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" s="102">
+        <v>90200</v>
+      </c>
+      <c r="K84" s="102">
+        <v>26900</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85">
+        <v>19.386099999999999</v>
+      </c>
+      <c r="C85">
+        <v>-155.68889999999999</v>
+      </c>
+      <c r="D85">
+        <v>1985</v>
+      </c>
+      <c r="E85">
+        <v>2.5</v>
+      </c>
+      <c r="F85">
+        <v>2.8</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="102">
+        <v>296000</v>
+      </c>
+      <c r="K85" s="102">
+        <v>24200</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86">
+        <v>19.3444</v>
+      </c>
+      <c r="C86">
+        <v>-155.6722</v>
+      </c>
+      <c r="D86">
+        <v>2055</v>
+      </c>
+      <c r="E86">
+        <v>2.5</v>
+      </c>
+      <c r="F86">
+        <v>2.8</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" s="102">
+        <v>257000</v>
+      </c>
+      <c r="K86" s="102">
+        <v>56400</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87">
+        <v>19.177800000000001</v>
+      </c>
+      <c r="C87">
+        <v>-155.6722</v>
+      </c>
+      <c r="D87">
+        <v>42</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2.8</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87" s="102">
+        <v>98300</v>
+      </c>
+      <c r="K87" s="102">
+        <v>21500</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B88">
+        <v>19.177800000000001</v>
+      </c>
+      <c r="C88">
+        <v>-155.6722</v>
+      </c>
+      <c r="D88">
+        <v>42</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <v>2.8</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88" s="102">
+        <v>53400</v>
+      </c>
+      <c r="K88" s="102">
+        <v>24200</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>221</v>
+      </c>
+      <c r="B89">
+        <v>19.144400000000001</v>
+      </c>
+      <c r="C89">
+        <v>-155.54169999999999</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
+      </c>
+      <c r="F89">
+        <v>2.8</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89" s="102">
+        <v>99900</v>
+      </c>
+      <c r="K89" s="102">
+        <v>18800</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90">
+        <v>19.163900000000002</v>
+      </c>
+      <c r="C90">
+        <v>-155.5917</v>
+      </c>
+      <c r="D90">
+        <v>24</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>2.8</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" s="102">
+        <v>153000</v>
+      </c>
+      <c r="K90" s="102">
+        <v>24200</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>222</v>
+      </c>
+      <c r="B91">
+        <v>19.163900000000002</v>
+      </c>
+      <c r="C91">
+        <v>-155.5917</v>
+      </c>
+      <c r="D91">
+        <v>24</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>2.8</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" s="102">
+        <v>90000</v>
+      </c>
+      <c r="K91" s="102">
+        <v>24200</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>223</v>
+      </c>
+      <c r="B92">
+        <v>19.175000000000001</v>
+      </c>
+      <c r="C92">
+        <v>-155.63059999999999</v>
+      </c>
+      <c r="D92">
+        <v>36</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92">
+        <v>2.8</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" s="102">
+        <v>91600</v>
+      </c>
+      <c r="K92" s="102">
+        <v>48300</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>224</v>
+      </c>
+      <c r="B93">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="C93">
+        <v>-155.5</v>
+      </c>
+      <c r="D93">
+        <v>115</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>2.8</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93" s="102">
+        <v>93400</v>
+      </c>
+      <c r="K93" s="102">
+        <v>24200</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>225</v>
+      </c>
+      <c r="B94">
+        <v>19.7</v>
+      </c>
+      <c r="C94">
+        <v>-155.86670000000001</v>
+      </c>
+      <c r="D94">
+        <v>2303</v>
+      </c>
+      <c r="E94">
+        <v>2.5</v>
+      </c>
+      <c r="F94">
+        <v>2.8</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94" s="102">
+        <v>913000</v>
+      </c>
+      <c r="K94" s="102">
+        <v>115000</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>226</v>
+      </c>
+      <c r="B95">
+        <v>19.333300000000001</v>
+      </c>
+      <c r="C95">
+        <v>-155.47499999999999</v>
+      </c>
+      <c r="D95">
+        <v>788</v>
+      </c>
+      <c r="E95">
+        <v>2.7</v>
+      </c>
+      <c r="F95">
+        <v>2.8</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95" s="102">
+        <v>336000</v>
+      </c>
+      <c r="K95" s="102">
+        <v>32200</v>
+      </c>
+      <c r="R95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>227</v>
+      </c>
+      <c r="B96">
+        <v>19.8278</v>
+      </c>
+      <c r="C96">
+        <v>-155.91669999999999</v>
+      </c>
+      <c r="D96">
+        <v>2370</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+      <c r="F96">
+        <v>2.8</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96" s="102">
+        <v>1390000</v>
+      </c>
+      <c r="K96" s="102">
+        <v>85900</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>228</v>
+      </c>
+      <c r="B97">
+        <v>19.8139</v>
+      </c>
+      <c r="C97">
+        <v>-155.89169999999999</v>
+      </c>
+      <c r="D97">
+        <v>2339</v>
+      </c>
+      <c r="E97">
+        <v>3.5</v>
+      </c>
+      <c r="F97">
+        <v>2.8</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97" s="102">
+        <v>1380000</v>
+      </c>
+      <c r="K97" s="102">
+        <v>94000</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>228</v>
+      </c>
+      <c r="B98">
+        <v>19.8139</v>
+      </c>
+      <c r="C98">
+        <v>-155.89169999999999</v>
+      </c>
+      <c r="D98">
+        <v>2339</v>
+      </c>
+      <c r="E98">
+        <v>3.5</v>
+      </c>
+      <c r="F98">
+        <v>2.8</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98" s="102">
+        <v>1030000</v>
+      </c>
+      <c r="K98" s="102">
+        <v>169000</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>229</v>
+      </c>
+      <c r="B99">
+        <v>19.75</v>
+      </c>
+      <c r="C99">
+        <v>-155.97499999999999</v>
+      </c>
+      <c r="D99">
+        <v>1964</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+      <c r="F99">
+        <v>2.8</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99" s="102">
+        <v>1900000</v>
+      </c>
+      <c r="K99" s="102">
+        <v>209000</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>230</v>
+      </c>
+      <c r="B100">
+        <v>19.675999999999998</v>
+      </c>
+      <c r="C100">
+        <v>-155.07579999999999</v>
+      </c>
+      <c r="D100">
+        <v>85</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>2.8</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100" s="102">
+        <v>1150000</v>
+      </c>
+      <c r="K100" s="102">
+        <v>64400</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101">
+        <v>18.927800000000001</v>
+      </c>
+      <c r="C101">
+        <v>-155.67500000000001</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101">
+        <v>3.5</v>
+      </c>
+      <c r="F101">
+        <v>2.8</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101" s="102">
+        <v>1070000</v>
+      </c>
+      <c r="K101" s="102">
+        <v>72500</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>232</v>
+      </c>
+      <c r="B102">
+        <v>19.066700000000001</v>
+      </c>
+      <c r="C102">
+        <v>-155.6944</v>
+      </c>
+      <c r="D102">
+        <v>279</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+      <c r="F102">
+        <v>2.8</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102" s="102">
+        <v>1260000</v>
+      </c>
+      <c r="K102" s="102">
+        <v>61800</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>233</v>
+      </c>
+      <c r="B103">
+        <v>19.855799999999999</v>
+      </c>
+      <c r="C103">
+        <v>-155.8725</v>
+      </c>
+      <c r="D103">
+        <v>197</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103">
+        <v>2.8</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103" s="102">
+        <v>1090000</v>
+      </c>
+      <c r="K103" s="102">
+        <v>53700</v>
+      </c>
+      <c r="R103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J104" s="102"/>
+      <c r="K104" s="102"/>
+      <c r="R104" s="3"/>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>234</v>
+      </c>
+      <c r="J105" s="102"/>
+      <c r="K105" s="102"/>
+      <c r="R105" s="3"/>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>235</v>
+      </c>
+      <c r="B106">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C106">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D106">
+        <v>2088</v>
+      </c>
+      <c r="E106">
+        <v>1E-4</v>
+      </c>
+      <c r="F106">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106" s="102">
+        <v>767900</v>
+      </c>
+      <c r="K106" s="102">
+        <v>29353</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>1</v>
+      </c>
+      <c r="Q106">
+        <v>4</v>
+      </c>
+      <c r="R106" s="3">
+        <v>0</v>
+      </c>
+      <c r="S106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>236</v>
+      </c>
+      <c r="B107">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C107">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D107">
+        <v>2088</v>
+      </c>
+      <c r="E107">
+        <v>1E-4</v>
+      </c>
+      <c r="F107">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107" s="102">
+        <v>788864</v>
+      </c>
+      <c r="K107" s="102">
+        <v>27976</v>
+      </c>
+      <c r="R107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>237</v>
+      </c>
+      <c r="B108">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C108">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D108">
+        <v>2088</v>
+      </c>
+      <c r="E108">
+        <v>1E-4</v>
+      </c>
+      <c r="F108">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108" s="102">
+        <v>880581</v>
+      </c>
+      <c r="K108" s="102">
+        <v>33875</v>
+      </c>
+      <c r="R108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C109">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D109">
+        <v>2088</v>
+      </c>
+      <c r="E109">
+        <v>1E-4</v>
+      </c>
+      <c r="F109">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" s="102">
+        <v>758776</v>
+      </c>
+      <c r="K109" s="102">
+        <v>31122</v>
+      </c>
+      <c r="R109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>239</v>
+      </c>
+      <c r="B110">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C110">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D110">
+        <v>2088</v>
+      </c>
+      <c r="E110">
+        <v>1E-4</v>
+      </c>
+      <c r="F110">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110" s="102">
+        <v>722309</v>
+      </c>
+      <c r="K110" s="102">
+        <v>47629</v>
+      </c>
+      <c r="R110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111">
+        <v>19.655000000000001</v>
+      </c>
+      <c r="C111">
+        <v>-155.4675833</v>
+      </c>
+      <c r="D111">
+        <v>2088</v>
+      </c>
+      <c r="E111">
+        <v>1E-4</v>
+      </c>
+      <c r="F111">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" s="102">
+        <v>674007</v>
+      </c>
+      <c r="K111" s="102">
+        <v>37835</v>
+      </c>
+      <c r="R111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="J112" s="102"/>
+      <c r="K112" s="102"/>
+      <c r="R112" s="3"/>
+    </row>
+    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115">
+        <v>64.384299999999996</v>
+      </c>
+      <c r="C115">
+        <v>-20.5549</v>
+      </c>
+      <c r="D115">
+        <v>459</v>
+      </c>
+      <c r="E115">
+        <v>0.01</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" s="102">
+        <v>770000</v>
+      </c>
+      <c r="K115" s="102">
+        <v>60000</v>
+      </c>
+      <c r="M115">
+        <v>3</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>1</v>
+      </c>
+      <c r="Q115">
+        <v>4</v>
+      </c>
+      <c r="R115" s="3">
+        <v>0</v>
+      </c>
+      <c r="S115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>243</v>
+      </c>
+      <c r="B116">
+        <v>64.383600000000001</v>
+      </c>
+      <c r="C116">
+        <v>-20.5564</v>
+      </c>
+      <c r="D116">
+        <v>457</v>
+      </c>
+      <c r="E116">
+        <v>0.01</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" s="102">
+        <v>730000</v>
+      </c>
+      <c r="K116" s="102">
+        <v>90000</v>
+      </c>
+      <c r="R116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>244</v>
+      </c>
+      <c r="B117">
+        <v>64.364400000000003</v>
+      </c>
+      <c r="C117">
+        <v>-20.553100000000001</v>
+      </c>
+      <c r="D117">
+        <v>447</v>
+      </c>
+      <c r="E117">
+        <v>0.01</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" s="102">
+        <v>860000</v>
+      </c>
+      <c r="K117" s="102">
+        <v>70000</v>
+      </c>
+      <c r="R117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B118">
+        <v>64.362899999999996</v>
+      </c>
+      <c r="C118">
+        <v>-20.551400000000001</v>
+      </c>
+      <c r="D118">
+        <v>446</v>
+      </c>
+      <c r="E118">
+        <v>0.01</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" s="102">
+        <v>820000</v>
+      </c>
+      <c r="K118" s="102">
+        <v>130000</v>
+      </c>
+      <c r="R118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>246</v>
+      </c>
+      <c r="B119">
+        <v>63.9726</v>
+      </c>
+      <c r="C119">
+        <v>-21.467400000000001</v>
+      </c>
+      <c r="D119">
+        <v>243</v>
+      </c>
+      <c r="E119">
+        <v>0.01</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" s="102">
+        <v>820000</v>
+      </c>
+      <c r="K119" s="102">
+        <v>60000</v>
+      </c>
+      <c r="R119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>247</v>
+      </c>
+      <c r="B120">
+        <v>63.973799999999997</v>
+      </c>
+      <c r="C120">
+        <v>-21.467099999999999</v>
+      </c>
+      <c r="D120">
+        <v>247</v>
+      </c>
+      <c r="E120">
+        <v>0.01</v>
+      </c>
+      <c r="F120">
+        <v>2</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120" s="102">
+        <v>930000</v>
+      </c>
+      <c r="K120" s="102">
+        <v>50000</v>
+      </c>
+      <c r="R120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>248</v>
+      </c>
+      <c r="B121">
+        <v>63.976500000000001</v>
+      </c>
+      <c r="C121">
+        <v>-21.478300000000001</v>
+      </c>
+      <c r="D121">
+        <v>273</v>
+      </c>
+      <c r="E121">
+        <v>0.01</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" s="102">
+        <v>890000</v>
+      </c>
+      <c r="K121" s="102">
+        <v>60000</v>
+      </c>
+      <c r="R121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>249</v>
+      </c>
+      <c r="B122">
+        <v>63.982199999999999</v>
+      </c>
+      <c r="C122">
+        <v>-21.4773</v>
+      </c>
+      <c r="D122">
+        <v>289</v>
+      </c>
+      <c r="E122">
+        <v>0.01</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122" s="102">
+        <v>960000</v>
+      </c>
+      <c r="K122" s="102">
+        <v>80000</v>
+      </c>
+      <c r="R122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>250</v>
+      </c>
+      <c r="B123">
+        <v>63.983899999999998</v>
+      </c>
+      <c r="C123">
+        <v>-21.4727</v>
+      </c>
+      <c r="D123">
+        <v>277</v>
+      </c>
+      <c r="E123">
+        <v>0.01</v>
+      </c>
+      <c r="F123">
+        <v>2</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" s="102">
+        <v>1050000</v>
+      </c>
+      <c r="K123" s="102">
+        <v>80000</v>
+      </c>
+      <c r="R123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124">
+        <v>63.983800000000002</v>
+      </c>
+      <c r="C124">
+        <v>-21.4727</v>
+      </c>
+      <c r="D124">
+        <v>277</v>
+      </c>
+      <c r="E124">
+        <v>0.01</v>
+      </c>
+      <c r="F124">
+        <v>2</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+      <c r="H124">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124" s="102">
+        <v>920000</v>
+      </c>
+      <c r="K124" s="102">
+        <v>70000</v>
+      </c>
+      <c r="R124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125">
+        <v>64.059200000000004</v>
+      </c>
+      <c r="C125">
+        <v>-21.874400000000001</v>
+      </c>
+      <c r="D125">
+        <v>96</v>
+      </c>
+      <c r="E125">
+        <v>0.01</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125" s="102">
+        <v>1260000</v>
+      </c>
+      <c r="K125" s="102">
+        <v>40000</v>
+      </c>
+      <c r="R125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126">
+        <v>64.089200000000005</v>
+      </c>
+      <c r="C126">
+        <v>-21.9679</v>
+      </c>
+      <c r="D126">
+        <v>30</v>
+      </c>
+      <c r="E126">
+        <v>0.01</v>
+      </c>
+      <c r="F126">
+        <v>2</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126" s="102">
+        <v>1130000</v>
+      </c>
+      <c r="K126" s="102">
+        <v>30000</v>
+      </c>
+      <c r="R126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>254</v>
+      </c>
+      <c r="B127">
+        <v>64.089600000000004</v>
+      </c>
+      <c r="C127">
+        <v>-21.089600000000001</v>
+      </c>
+      <c r="D127">
+        <v>22</v>
+      </c>
+      <c r="E127">
+        <v>0.01</v>
+      </c>
+      <c r="F127">
+        <v>2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127" s="102">
+        <v>1260000</v>
+      </c>
+      <c r="K127" s="102">
+        <v>70000</v>
+      </c>
+      <c r="R127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128">
+        <v>64.0869</v>
+      </c>
+      <c r="C128">
+        <v>-21.089600000000001</v>
+      </c>
+      <c r="D128">
+        <v>22</v>
+      </c>
+      <c r="E128">
+        <v>0.01</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+      <c r="H128">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128" s="102">
+        <v>1170000</v>
+      </c>
+      <c r="K128" s="102">
+        <v>120000</v>
+      </c>
+      <c r="R128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129">
+        <v>64.091700000000003</v>
+      </c>
+      <c r="C129">
+        <v>-21.970400000000001</v>
+      </c>
+      <c r="D129">
+        <v>26</v>
+      </c>
+      <c r="E129">
+        <v>0.01</v>
+      </c>
+      <c r="F129">
+        <v>2</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" s="102">
+        <v>1140000</v>
+      </c>
+      <c r="K129" s="102">
+        <v>50000</v>
+      </c>
+      <c r="R129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B130">
+        <v>64.091700000000003</v>
+      </c>
+      <c r="C130">
+        <v>-21.970400000000001</v>
+      </c>
+      <c r="D130">
+        <v>26</v>
+      </c>
+      <c r="E130">
+        <v>0.01</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" s="102">
+        <v>1100000</v>
+      </c>
+      <c r="K130" s="102">
+        <v>30000</v>
+      </c>
+      <c r="R130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>258</v>
+      </c>
+      <c r="B131">
+        <v>64.093500000000006</v>
+      </c>
+      <c r="C131">
+        <v>-21.968499999999999</v>
+      </c>
+      <c r="D131">
+        <v>28</v>
+      </c>
+      <c r="E131">
+        <v>0.01</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" s="102">
+        <v>990000</v>
+      </c>
+      <c r="K131" s="102">
+        <v>40000</v>
+      </c>
+      <c r="R131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>259</v>
+      </c>
+      <c r="B132">
+        <v>64.087100000000007</v>
+      </c>
+      <c r="C132">
+        <v>-21.968900000000001</v>
+      </c>
+      <c r="D132">
+        <v>27</v>
+      </c>
+      <c r="E132">
+        <v>0.01</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" s="102">
+        <v>1070000</v>
+      </c>
+      <c r="K132" s="102">
+        <v>30000</v>
+      </c>
+      <c r="R132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>260</v>
+      </c>
+      <c r="B133">
+        <v>64.164500000000004</v>
+      </c>
+      <c r="C133">
+        <v>-21.036899999999999</v>
+      </c>
+      <c r="D133">
+        <v>131</v>
+      </c>
+      <c r="E133">
+        <v>0.01</v>
+      </c>
+      <c r="F133">
+        <v>2</v>
+      </c>
+      <c r="G133">
+        <v>1</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" s="102">
+        <v>1530000</v>
+      </c>
+      <c r="K133" s="102">
+        <v>60000</v>
+      </c>
+      <c r="R133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>261</v>
+      </c>
+      <c r="B134">
+        <v>64.164900000000003</v>
+      </c>
+      <c r="C134">
+        <v>-21.036799999999999</v>
+      </c>
+      <c r="D134">
+        <v>122</v>
+      </c>
+      <c r="E134">
+        <v>0.01</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134" s="102">
+        <v>1170000</v>
+      </c>
+      <c r="K134" s="102">
+        <v>80000</v>
+      </c>
+      <c r="R134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>262</v>
+      </c>
+      <c r="B135">
+        <v>64.156199999999998</v>
+      </c>
+      <c r="C135">
+        <v>-21.047999999999998</v>
+      </c>
+      <c r="D135">
+        <v>121</v>
+      </c>
+      <c r="E135">
+        <v>0.01</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135">
+        <v>1</v>
+      </c>
+      <c r="H135">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135" s="102">
+        <v>1550000</v>
+      </c>
+      <c r="K135" s="102">
+        <v>60000</v>
+      </c>
+      <c r="R135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136">
+        <v>64.156099999999995</v>
+      </c>
+      <c r="C136">
+        <v>-21.047999999999998</v>
+      </c>
+      <c r="D136">
+        <v>120</v>
+      </c>
+      <c r="E136">
+        <v>0.01</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136">
+        <v>1</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136" s="102">
+        <v>1710000</v>
+      </c>
+      <c r="K136" s="102">
+        <v>120000</v>
+      </c>
+      <c r="R136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139">
+        <v>44.29</v>
+      </c>
+      <c r="C139">
+        <v>-121.76390000000001</v>
+      </c>
+      <c r="D139">
+        <v>1469</v>
+      </c>
+      <c r="E139">
+        <v>0.01</v>
+      </c>
+      <c r="F139">
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>1</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139" s="102">
+        <v>961000</v>
+      </c>
+      <c r="K139" s="102">
+        <v>30000</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>4</v>
+      </c>
+      <c r="R139" s="3">
+        <v>0</v>
+      </c>
+      <c r="S139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>266</v>
+      </c>
+      <c r="B140">
+        <v>44.276400000000002</v>
+      </c>
+      <c r="C140">
+        <v>-121.7774</v>
+      </c>
+      <c r="D140">
+        <v>1530</v>
+      </c>
+      <c r="E140">
+        <v>0.01</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140" s="102">
+        <v>967000</v>
+      </c>
+      <c r="K140" s="102">
+        <v>27000</v>
+      </c>
+      <c r="R140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>267</v>
+      </c>
+      <c r="B141">
+        <v>44.259399999999999</v>
+      </c>
+      <c r="C141">
+        <v>-121.8022</v>
+      </c>
+      <c r="D141">
+        <v>1622</v>
+      </c>
+      <c r="E141">
+        <v>0.01</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <v>1</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" s="102">
+        <v>952000</v>
+      </c>
+      <c r="K141" s="102">
+        <v>31000</v>
+      </c>
+      <c r="R141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>268</v>
+      </c>
+      <c r="B142">
+        <v>44.270899999999997</v>
+      </c>
+      <c r="C142">
+        <v>-121.7865</v>
+      </c>
+      <c r="D142">
+        <v>1588</v>
+      </c>
+      <c r="E142">
+        <v>0.01</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142" s="102">
+        <v>845000</v>
+      </c>
+      <c r="K142" s="102">
+        <v>18000</v>
+      </c>
+      <c r="R142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>269</v>
+      </c>
+      <c r="B143">
+        <v>44.27</v>
+      </c>
+      <c r="C143">
+        <v>-121.7931</v>
+      </c>
+      <c r="D143">
+        <v>1600</v>
+      </c>
+      <c r="E143">
+        <v>0.01</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143">
+        <v>1</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143" s="102">
+        <v>820000</v>
+      </c>
+      <c r="K143" s="102">
+        <v>57000</v>
+      </c>
+      <c r="R143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144">
+        <v>44.240900000000003</v>
+      </c>
+      <c r="C144">
+        <v>-121.8575</v>
+      </c>
+      <c r="D144">
+        <v>1533</v>
+      </c>
+      <c r="E144">
+        <v>0.01</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144">
+        <v>1</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" s="102">
+        <v>1090000</v>
+      </c>
+      <c r="K144" s="102">
+        <v>30000</v>
+      </c>
+      <c r="R144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>271</v>
+      </c>
+      <c r="B145">
+        <v>44.25</v>
+      </c>
+      <c r="C145">
+        <v>-121.84569999999999</v>
+      </c>
+      <c r="D145">
+        <v>1536</v>
+      </c>
+      <c r="E145">
+        <v>0.01</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145" s="102">
+        <v>785000</v>
+      </c>
+      <c r="K145" s="102">
+        <v>70000</v>
+      </c>
+      <c r="R145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>272</v>
+      </c>
+      <c r="B146">
+        <v>44.25</v>
+      </c>
+      <c r="C146">
+        <v>-121.84569999999999</v>
+      </c>
+      <c r="D146">
+        <v>1536</v>
+      </c>
+      <c r="E146">
+        <v>0.01</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" s="102">
+        <v>851000</v>
+      </c>
+      <c r="K146" s="102">
+        <v>41000</v>
+      </c>
+      <c r="R146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147">
+        <v>44.24</v>
+      </c>
+      <c r="C147">
+        <v>-121.85429999999999</v>
+      </c>
+      <c r="D147">
+        <v>1536</v>
+      </c>
+      <c r="E147">
+        <v>0.01</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+      <c r="G147">
+        <v>1</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147" s="102">
+        <v>1230000</v>
+      </c>
+      <c r="K147" s="102">
+        <v>110000</v>
+      </c>
+      <c r="R147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148">
+        <v>44.24</v>
+      </c>
+      <c r="C148">
+        <v>-121.85429999999999</v>
+      </c>
+      <c r="D148">
+        <v>1536</v>
+      </c>
+      <c r="E148">
+        <v>0.01</v>
+      </c>
+      <c r="F148">
+        <v>2</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148" s="102">
+        <v>976000</v>
+      </c>
+      <c r="K148" s="102">
+        <v>45000</v>
+      </c>
+      <c r="R148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149">
+        <v>44.240600000000001</v>
+      </c>
+      <c r="C149">
+        <v>-121.87</v>
+      </c>
+      <c r="D149">
+        <v>1478</v>
+      </c>
+      <c r="E149">
+        <v>0.01</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149" s="102">
+        <v>846000</v>
+      </c>
+      <c r="K149" s="102">
+        <v>47000</v>
+      </c>
+      <c r="R149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150">
+        <v>44.2408</v>
+      </c>
+      <c r="C150">
+        <v>-121.8625</v>
+      </c>
+      <c r="D150">
+        <v>1515</v>
+      </c>
+      <c r="E150">
+        <v>0.01</v>
+      </c>
+      <c r="F150">
+        <v>2</v>
+      </c>
+      <c r="G150">
+        <v>1</v>
+      </c>
+      <c r="H150">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150" s="102">
+        <v>953000</v>
+      </c>
+      <c r="K150" s="102">
+        <v>34000</v>
+      </c>
+      <c r="R150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151">
+        <v>44.370100000000001</v>
+      </c>
+      <c r="C151">
+        <v>-121.9927</v>
+      </c>
+      <c r="D151">
+        <v>925</v>
+      </c>
+      <c r="E151">
+        <v>0.01</v>
+      </c>
+      <c r="F151">
+        <v>2</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151" s="102">
+        <v>667000</v>
+      </c>
+      <c r="K151" s="102">
+        <v>24000</v>
+      </c>
+      <c r="R151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>278</v>
+      </c>
+      <c r="B152">
+        <v>44.365499999999997</v>
+      </c>
+      <c r="C152">
+        <v>-121.98609999999999</v>
+      </c>
+      <c r="D152">
+        <v>966</v>
+      </c>
+      <c r="E152">
+        <v>0.01</v>
+      </c>
+      <c r="F152">
+        <v>2</v>
+      </c>
+      <c r="G152">
+        <v>1</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152" s="102">
+        <v>715000</v>
+      </c>
+      <c r="K152" s="102">
+        <v>55000</v>
+      </c>
+      <c r="R152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153">
+        <v>44.365499999999997</v>
+      </c>
+      <c r="C153">
+        <v>-121.98609999999999</v>
+      </c>
+      <c r="D153">
+        <v>966</v>
+      </c>
+      <c r="E153">
+        <v>0.01</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153">
+        <v>1</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153" s="102">
+        <v>644000</v>
+      </c>
+      <c r="K153" s="102">
+        <v>86000</v>
+      </c>
+      <c r="R153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154">
+        <v>44.363700000000001</v>
+      </c>
+      <c r="C154">
+        <v>-121.98990000000001</v>
+      </c>
+      <c r="D154">
+        <v>924</v>
+      </c>
+      <c r="E154">
+        <v>0.01</v>
+      </c>
+      <c r="F154">
+        <v>2</v>
+      </c>
+      <c r="G154">
+        <v>1</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154" s="102">
+        <v>577000</v>
+      </c>
+      <c r="K154" s="102">
+        <v>36000</v>
+      </c>
+      <c r="R154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>281</v>
+      </c>
+      <c r="B155">
+        <v>44.364600000000003</v>
+      </c>
+      <c r="C155">
+        <v>-121.9888</v>
+      </c>
+      <c r="D155">
+        <v>930</v>
+      </c>
+      <c r="E155">
+        <v>0.01</v>
+      </c>
+      <c r="F155">
+        <v>2</v>
+      </c>
+      <c r="G155">
+        <v>1</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155" s="102">
+        <v>674000</v>
+      </c>
+      <c r="K155" s="102">
+        <v>48000</v>
+      </c>
+      <c r="R155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>282</v>
+      </c>
+      <c r="B156">
+        <v>44.368899999999996</v>
+      </c>
+      <c r="C156">
+        <v>-121.98990000000001</v>
+      </c>
+      <c r="D156">
+        <v>933</v>
+      </c>
+      <c r="E156">
+        <v>0.01</v>
+      </c>
+      <c r="F156">
+        <v>2</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156" s="102">
+        <v>696000</v>
+      </c>
+      <c r="K156" s="102">
+        <v>52000</v>
+      </c>
+      <c r="R156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>283</v>
+      </c>
+      <c r="B157">
+        <v>43.376300000000001</v>
+      </c>
+      <c r="C157">
+        <v>-121.3763</v>
+      </c>
+      <c r="D157">
+        <v>1347</v>
+      </c>
+      <c r="E157">
+        <v>0.01</v>
+      </c>
+      <c r="F157">
+        <v>2</v>
+      </c>
+      <c r="G157">
+        <v>1</v>
+      </c>
+      <c r="H157">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157" s="102">
+        <v>2310000</v>
+      </c>
+      <c r="K157" s="102">
+        <v>109000</v>
+      </c>
+      <c r="R157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158">
+        <v>43.985999999999997</v>
+      </c>
+      <c r="C158">
+        <v>-121.387</v>
+      </c>
+      <c r="D158">
+        <v>1216</v>
+      </c>
+      <c r="E158">
+        <v>0.01</v>
+      </c>
+      <c r="F158">
+        <v>2</v>
+      </c>
+      <c r="G158">
+        <v>1</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158" s="102">
+        <v>2080000</v>
+      </c>
+      <c r="K158" s="102">
+        <v>78000</v>
+      </c>
+      <c r="R158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R159" s="3"/>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>285</v>
+      </c>
+      <c r="R160" s="3"/>
+    </row>
+    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>10717</v>
+      </c>
+      <c r="B161">
+        <v>45.616999999999997</v>
+      </c>
+      <c r="C161">
+        <v>2.9830000000000001</v>
+      </c>
+      <c r="D161">
+        <v>860</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>2.5</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1660000</v>
+      </c>
+      <c r="K161">
+        <v>90000</v>
+      </c>
+      <c r="M161">
+        <v>3</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>1</v>
+      </c>
+      <c r="Q161">
+        <v>4</v>
+      </c>
+      <c r="R161" s="3">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>287</v>
+      </c>
+      <c r="B164">
+        <v>38.930199999999999</v>
+      </c>
+      <c r="C164">
+        <v>-112.5222</v>
+      </c>
+      <c r="D164">
+        <v>1461</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>1</v>
+      </c>
+      <c r="H164">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164" s="102">
+        <v>6280000</v>
+      </c>
+      <c r="K164" s="102">
+        <v>110000</v>
+      </c>
+      <c r="M164">
+        <v>3</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>1</v>
+      </c>
+      <c r="Q164">
+        <v>4</v>
+      </c>
+      <c r="R164" s="3">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>288</v>
+      </c>
+      <c r="B165">
+        <v>38.930100000000003</v>
+      </c>
+      <c r="C165">
+        <v>-112.5222</v>
+      </c>
+      <c r="D165">
+        <v>1463</v>
+      </c>
+      <c r="E165">
+        <v>4.5</v>
+      </c>
+      <c r="F165">
+        <v>2.04</v>
+      </c>
+      <c r="G165">
+        <v>1</v>
+      </c>
+      <c r="H165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165" s="102">
+        <v>5890000</v>
+      </c>
+      <c r="K165" s="102">
+        <v>120000</v>
+      </c>
+      <c r="R165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>289</v>
+      </c>
+      <c r="B166">
+        <v>38.930500000000002</v>
+      </c>
+      <c r="C166">
+        <v>-112.52209999999999</v>
+      </c>
+      <c r="D166">
+        <v>1457</v>
+      </c>
+      <c r="E166">
+        <v>4.5</v>
+      </c>
+      <c r="F166">
+        <v>1.92</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166" s="102">
+        <v>6100000</v>
+      </c>
+      <c r="K166" s="102">
+        <v>110000</v>
+      </c>
+      <c r="R166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>290</v>
+      </c>
+      <c r="B167">
+        <v>38.930100000000003</v>
+      </c>
+      <c r="C167">
+        <v>-112.5222</v>
+      </c>
+      <c r="D167">
+        <v>1463</v>
+      </c>
+      <c r="E167">
+        <v>4.5</v>
+      </c>
+      <c r="F167">
+        <v>2.8</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167" s="102">
+        <v>6070000</v>
+      </c>
+      <c r="K167" s="102">
+        <v>100000</v>
+      </c>
+      <c r="R167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>291</v>
+      </c>
+      <c r="B168">
+        <v>38.929900000000004</v>
+      </c>
+      <c r="C168">
+        <v>-112.51990000000001</v>
+      </c>
+      <c r="D168">
+        <v>1455</v>
+      </c>
+      <c r="E168">
+        <v>4.5</v>
+      </c>
+      <c r="F168">
+        <v>2</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168" s="102">
+        <v>6180000</v>
+      </c>
+      <c r="K168" s="102">
+        <v>120000</v>
+      </c>
+      <c r="R168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>292</v>
+      </c>
+      <c r="B169">
+        <v>38.930100000000003</v>
+      </c>
+      <c r="C169">
+        <v>-112.5189</v>
+      </c>
+      <c r="D169">
+        <v>1457</v>
+      </c>
+      <c r="E169">
+        <v>4.5</v>
+      </c>
+      <c r="F169">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169" s="102">
+        <v>6270000</v>
+      </c>
+      <c r="K169" s="102">
+        <v>150000</v>
+      </c>
+      <c r="R169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>293</v>
+      </c>
+      <c r="B170">
+        <v>38.930799999999998</v>
+      </c>
+      <c r="C170">
+        <v>-112.5226</v>
+      </c>
+      <c r="D170">
+        <v>1461</v>
+      </c>
+      <c r="E170">
+        <v>4.5</v>
+      </c>
+      <c r="F170">
+        <v>2.11</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170" s="102">
+        <v>6000000</v>
+      </c>
+      <c r="K170" s="102">
+        <v>100000</v>
+      </c>
+      <c r="R170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>294</v>
+      </c>
+      <c r="B171">
+        <v>38.930100000000003</v>
+      </c>
+      <c r="C171">
+        <v>-112.5189</v>
+      </c>
+      <c r="D171">
+        <v>1457</v>
+      </c>
+      <c r="E171">
+        <v>4.5</v>
+      </c>
+      <c r="F171">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171" s="102">
+        <v>6020000</v>
+      </c>
+      <c r="K171" s="102">
+        <v>110000</v>
+      </c>
+      <c r="R171" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/Data/Inputs_archive.xlsx
+++ b/src/Data/Inputs_archive.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmijjum/Documents/Production_Rates_Calculator/src/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{474E3F29-CE1A-4147-8AA4-851618FBDEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E4A693C-5FBF-4447-BB93-1A73C64C6953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="7" activeTab="18" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="2" activeTab="17" xr2:uid="{F8915493-4FC8-694E-B81B-64E86909DDA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Active" sheetId="1" r:id="rId1"/>
-    <sheet name="calibration 3he" sheetId="19" r:id="rId2"/>
-    <sheet name="README" sheetId="2" r:id="rId3"/>
+    <sheet name="README" sheetId="2" r:id="rId2"/>
+    <sheet name="calibration 3he" sheetId="19" r:id="rId3"/>
     <sheet name="Figure 8" sheetId="3" r:id="rId4"/>
     <sheet name="atm_depth_elevations" sheetId="4" r:id="rId5"/>
     <sheet name="atm_depth_comparison" sheetId="5" r:id="rId6"/>
@@ -37,7 +37,7 @@
     <definedName name="solver_adj" localSheetId="0" hidden="1">Active!$B$77,Active!$B$82,Active!$B$84,Active!$B$85</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">atm_depth_comparison!$B$79,atm_depth_comparison!$B$84,atm_depth_comparison!$B$86,atm_depth_comparison!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">atm_depth_elevations!$B$77,atm_depth_elevations!$B$82,atm_depth_elevations!$B$84,atm_depth_elevations!$B$85</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">'calibration 3he'!$B$77,'calibration 3he'!$B$82,'calibration 3he'!$B$84,'calibration 3he'!$B$85</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">'calibration 3he'!$B$77,'calibration 3he'!$B$82,'calibration 3he'!$B$84,'calibration 3he'!$B$85</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'CRFB texposure'!$B$79,'CRFB texposure'!$B$84,'CRFB texposure'!$B$86,'CRFB texposure'!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="8" hidden="1">'Deccan Texposure'!$B$79,'Deccan Texposure'!$B$84,'Deccan Texposure'!$B$86,'Deccan Texposure'!$B$87</definedName>
     <definedName name="solver_adj" localSheetId="11" hidden="1">'Figure 3'!$B$74,'Figure 3'!$B$79,'Figure 3'!$B$81,'Figure 3'!$B$82</definedName>
@@ -45,7 +45,7 @@
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
@@ -53,7 +53,7 @@
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Active!$B$88</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">atm_depth_comparison!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="4" hidden="1">atm_depth_elevations!$B$88</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">'calibration 3he'!$B$88</definedName>
+    <definedName name="solver_lhs1" localSheetId="2" hidden="1">'calibration 3he'!$B$88</definedName>
     <definedName name="solver_lhs1" localSheetId="7" hidden="1">'CRFB texposure'!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Deccan Texposure'!$B$90</definedName>
     <definedName name="solver_lhs1" localSheetId="11" hidden="1">'Figure 3'!$B$85</definedName>
@@ -61,7 +61,7 @@
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">Active!$F$55</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">atm_depth_comparison!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="4" hidden="1">atm_depth_elevations!$F$55</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">'calibration 3he'!$F$55</definedName>
+    <definedName name="solver_lhs2" localSheetId="2" hidden="1">'calibration 3he'!$F$55</definedName>
     <definedName name="solver_lhs2" localSheetId="7" hidden="1">'CRFB texposure'!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Deccan Texposure'!$F$57</definedName>
     <definedName name="solver_lhs2" localSheetId="11" hidden="1">'Figure 3'!$F$52</definedName>
@@ -69,7 +69,7 @@
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">Active!$F$56</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">atm_depth_comparison!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="4" hidden="1">atm_depth_elevations!$F$56</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">'calibration 3he'!$F$56</definedName>
+    <definedName name="solver_lhs3" localSheetId="2" hidden="1">'calibration 3he'!$F$56</definedName>
     <definedName name="solver_lhs3" localSheetId="7" hidden="1">'CRFB texposure'!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="8" hidden="1">'Deccan Texposure'!$F$58</definedName>
     <definedName name="solver_lhs3" localSheetId="11" hidden="1">'Figure 3'!$F$53</definedName>
@@ -77,7 +77,7 @@
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_lin" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_lin" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_lin" localSheetId="11" hidden="1">2</definedName>
@@ -85,7 +85,7 @@
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
@@ -93,7 +93,7 @@
     <definedName name="solver_num" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_num" localSheetId="11" hidden="1">3</definedName>
@@ -101,7 +101,7 @@
     <definedName name="solver_opt" localSheetId="0" hidden="1">Active!$F$54</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">atm_depth_comparison!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">atm_depth_elevations!$F$54</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'calibration 3he'!$F$54</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">'calibration 3he'!$F$54</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">'CRFB texposure'!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="8" hidden="1">'Deccan Texposure'!$F$56</definedName>
     <definedName name="solver_opt" localSheetId="11" hidden="1">'Figure 3'!$F$51</definedName>
@@ -109,7 +109,7 @@
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="11" hidden="1">2</definedName>
@@ -117,7 +117,7 @@
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="11" hidden="1">2</definedName>
@@ -125,7 +125,7 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="11" hidden="1">2</definedName>
@@ -133,7 +133,7 @@
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">100</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_rhs1" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_rhs1" localSheetId="11" hidden="1">100</definedName>
@@ -141,7 +141,7 @@
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0.4</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">0.4</definedName>
+    <definedName name="solver_rhs2" localSheetId="2" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="7" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="8" hidden="1">0.4</definedName>
     <definedName name="solver_rhs2" localSheetId="11" hidden="1">0.4</definedName>
@@ -149,7 +149,7 @@
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">1.4</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">1.4</definedName>
+    <definedName name="solver_rhs3" localSheetId="2" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="7" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="8" hidden="1">1.4</definedName>
     <definedName name="solver_rhs3" localSheetId="11" hidden="1">1.4</definedName>
@@ -157,7 +157,7 @@
     <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">3</definedName>
-    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_typ" localSheetId="11" hidden="1">3</definedName>
@@ -165,7 +165,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">98.2</definedName>
-    <definedName name="solver_val" localSheetId="1" hidden="1">98.2</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="8" hidden="1">98.2</definedName>
     <definedName name="solver_val" localSheetId="11" hidden="1">98.2</definedName>
@@ -173,14 +173,13 @@
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="11" hidden="1">2</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -201,7 +200,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="295">
   <si>
     <t>Sample Name</t>
   </si>
@@ -299,9 +298,6 @@
     <t xml:space="preserve">0&lt;x&lt;=1 </t>
   </si>
   <si>
-    <t>Positive for uplift</t>
-  </si>
-  <si>
     <t>1-4</t>
   </si>
   <si>
@@ -315,9 +311,6 @@
   </si>
   <si>
     <t>0-1</t>
-  </si>
-  <si>
-    <t>Negative for subsidence</t>
   </si>
   <si>
     <t>Used to report exposure age outputs</t>
@@ -1097,6 +1090,12 @@
   </si>
   <si>
     <t>05-TAB-07</t>
+  </si>
+  <si>
+    <t>Negative for uplift</t>
+  </si>
+  <si>
+    <t>Positive for subsidence</t>
   </si>
 </sst>
 </file>
@@ -1700,6 +1699,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1748,7 +1748,6 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -2067,7 +2066,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+      <selection activeCell="F1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2140,7 +2139,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4">
         <v>35.590000000000003</v>
@@ -2196,7 +2195,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4">
         <v>35.6</v>
@@ -2234,7 +2233,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B4" s="4">
         <v>35.6</v>
@@ -2272,7 +2271,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B5" s="4">
         <v>35.6</v>
@@ -2310,7 +2309,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B6" s="4">
         <v>35.6</v>
@@ -2348,7 +2347,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" s="4">
         <v>35.6</v>
@@ -2386,7 +2385,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B8" s="4">
         <v>35.6</v>
@@ -2424,7 +2423,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B9" s="4">
         <v>35.6</v>
@@ -2462,7 +2461,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="4">
         <v>35.6</v>
@@ -2500,7 +2499,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B11" s="4">
         <v>35.6</v>
@@ -2987,10 +2986,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -3004,7 +3003,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="64">
         <v>90</v>
@@ -3052,7 +3051,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="4">
         <v>0</v>
@@ -3079,7 +3078,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="4">
         <v>90</v>
@@ -3106,7 +3105,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="4">
         <v>0</v>
@@ -3133,7 +3132,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="64">
         <v>90</v>
@@ -3157,7 +3156,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="4">
         <v>0</v>
@@ -3181,7 +3180,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4">
         <v>90</v>
@@ -3205,7 +3204,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4">
         <v>0</v>
@@ -3229,7 +3228,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="64">
         <v>90</v>
@@ -3253,7 +3252,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4">
         <v>0</v>
@@ -3355,10 +3354,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -4020,7 +4019,7 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H1" t="s">
         <v>7</v>
@@ -4034,7 +4033,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="64">
         <v>20</v>
@@ -4069,7 +4068,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="64">
         <v>-19</v>
@@ -4090,7 +4089,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" s="64">
         <v>75</v>
@@ -4111,7 +4110,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="64">
         <v>0</v>
@@ -4470,10 +4469,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -4487,7 +4486,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2">
         <v>75</v>
@@ -4516,7 +4515,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3">
         <v>75</v>
@@ -4530,7 +4529,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>75</v>
@@ -4544,7 +4543,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5">
         <v>75</v>
@@ -4558,7 +4557,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>75</v>
@@ -4572,7 +4571,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7">
         <v>75</v>
@@ -4586,7 +4585,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>75</v>
@@ -4600,7 +4599,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <v>75</v>
@@ -4614,7 +4613,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>75</v>
@@ -4628,7 +4627,7 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11">
         <v>75</v>
@@ -4642,7 +4641,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B12">
         <v>75</v>
@@ -4656,7 +4655,7 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13">
         <v>75</v>
@@ -4670,7 +4669,7 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14">
         <v>75</v>
@@ -4684,7 +4683,7 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15">
         <v>75</v>
@@ -4698,7 +4697,7 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B16">
         <v>75</v>
@@ -4712,7 +4711,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B17">
         <v>75</v>
@@ -4726,7 +4725,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18">
         <v>75</v>
@@ -4740,7 +4739,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4754,7 +4753,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -4768,7 +4767,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4782,7 +4781,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4796,7 +4795,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -4810,7 +4809,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -4824,7 +4823,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4838,7 +4837,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4852,7 +4851,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4866,7 +4865,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4883,7 +4882,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4900,7 +4899,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4917,7 +4916,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4934,7 +4933,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4951,7 +4950,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -4968,7 +4967,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4985,7 +4984,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5065,7 +5064,7 @@
   <dimension ref="A1:S52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD29"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5120,10 +5119,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -5137,7 +5136,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6">
         <v>-20.101167</v>
@@ -5175,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -5195,7 +5194,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B3" s="47">
         <v>-20.101167</v>
@@ -5231,7 +5230,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="8">
         <v>-19.578942000000001</v>
@@ -5267,7 +5266,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="8">
         <v>-19.578942000000001</v>
@@ -5303,7 +5302,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B6" s="47">
         <v>-19.987110999999999</v>
@@ -5339,7 +5338,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="47">
         <v>-19.340944</v>
@@ -5375,7 +5374,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="47">
         <v>-19.340944</v>
@@ -5411,7 +5410,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="47" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="47">
         <v>-19.340944</v>
@@ -5447,7 +5446,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B10" s="47">
         <v>-19.336722000000002</v>
@@ -5483,7 +5482,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="47" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="47">
         <v>-19.336722000000002</v>
@@ -5519,7 +5518,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" s="47">
         <v>-19.336722000000002</v>
@@ -5555,7 +5554,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="53">
         <v>-18.886583000000002</v>
@@ -5591,7 +5590,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B14" s="53">
         <v>-18.886583000000002</v>
@@ -5627,7 +5626,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B15" s="53">
         <v>-18.905639000000001</v>
@@ -5662,7 +5661,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B16" s="53">
         <v>-18.905639000000001</v>
@@ -5697,7 +5696,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B17" s="53">
         <v>-18.852694</v>
@@ -5732,7 +5731,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B18" s="53">
         <v>-20.704083000000001</v>
@@ -5767,7 +5766,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="46">
         <v>-19.786306</v>
@@ -5802,7 +5801,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="47" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B20" s="47">
         <v>-19.786306</v>
@@ -5837,7 +5836,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="47">
         <v>-19.786306</v>
@@ -5872,7 +5871,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" s="47">
         <v>-19.397832999999999</v>
@@ -5907,7 +5906,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="47" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B23" s="47">
         <v>-19.397832999999999</v>
@@ -5942,7 +5941,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="47">
         <v>-19.397832999999999</v>
@@ -5977,7 +5976,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B25" s="53">
         <v>-19.522110999999999</v>
@@ -6012,7 +6011,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="53">
         <v>-19.522110999999999</v>
@@ -6047,7 +6046,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B27" s="56">
         <v>-18.503527999999999</v>
@@ -6082,7 +6081,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B28" s="59">
         <v>-18.389944</v>
@@ -6117,7 +6116,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B29" s="56">
         <v>-18.389944</v>
@@ -6415,10 +6414,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -6432,7 +6431,7 @@
     </row>
     <row r="2" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="69" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B2" s="70">
         <v>-21.724806000000001</v>
@@ -6490,7 +6489,7 @@
     </row>
     <row r="3" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="69" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B3" s="70">
         <v>-21.724806000000001</v>
@@ -6531,7 +6530,7 @@
     </row>
     <row r="4" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B4" s="70">
         <v>-21.704056000000001</v>
@@ -6573,7 +6572,7 @@
     </row>
     <row r="5" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="70">
         <v>-21.704056000000001</v>
@@ -6614,7 +6613,7 @@
     </row>
     <row r="6" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B6" s="70">
         <v>-21.704056000000001</v>
@@ -6655,7 +6654,7 @@
     </row>
     <row r="7" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B7" s="70">
         <v>-21.101222</v>
@@ -6695,7 +6694,7 @@
     </row>
     <row r="8" spans="1:72" s="74" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B8" s="70">
         <v>-21.101222</v>
@@ -6735,7 +6734,7 @@
     </row>
     <row r="9" spans="1:72" s="75" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="70" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B9" s="70">
         <v>-21.078944</v>
@@ -6775,7 +6774,7 @@
     </row>
     <row r="10" spans="1:72" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="70" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="70">
         <v>-20.101167</v>
@@ -6873,7 +6872,7 @@
     </row>
     <row r="11" spans="1:72" s="76" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="70" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B11" s="70">
         <v>-20.101167</v>
@@ -6971,7 +6970,7 @@
     </row>
     <row r="12" spans="1:72" s="81" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="77" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B12" s="77">
         <v>-19.987110999999999</v>
@@ -7069,7 +7068,7 @@
     </row>
     <row r="13" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="69" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B13" s="70">
         <v>-19.987110999999999</v>
@@ -7109,7 +7108,7 @@
     </row>
     <row r="14" spans="1:72" s="85" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="83" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B14" s="83">
         <v>-20.108222000000001</v>
@@ -7149,7 +7148,7 @@
     </row>
     <row r="15" spans="1:72" s="72" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B15" s="70">
         <v>-19.786306</v>
@@ -7644,10 +7643,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -7661,7 +7660,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B2" s="4">
         <v>38</v>
@@ -7715,7 +7714,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" s="4">
         <v>38</v>
@@ -7751,7 +7750,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B4" s="4">
         <v>38</v>
@@ -7787,7 +7786,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B5" s="4">
         <v>38</v>
@@ -7820,7 +7819,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4">
         <v>38</v>
@@ -7853,7 +7852,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4">
         <v>38</v>
@@ -7886,7 +7885,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="63" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B8" s="4">
         <v>38</v>
@@ -8409,7 +8408,7 @@
   <dimension ref="A1:R84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8458,10 +8457,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -9865,67 +9864,73 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F83964-0BC2-7746-B92E-91385409D085}">
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="78">
         <v>-19.541574000000001</v>
@@ -9948,6 +9953,9 @@
       <c r="H2" s="10">
         <v>0</v>
       </c>
+      <c r="I2" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J2" s="78">
         <v>458399999.99999994</v>
       </c>
@@ -9958,13 +9966,13 @@
         <v>4</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q2">
         <v>2</v>
@@ -9972,10 +9980,13 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="10">
         <v>-19.541574000000001</v>
@@ -9998,6 +10009,9 @@
       <c r="H3" s="10">
         <v>0</v>
       </c>
+      <c r="I3" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J3" s="10">
         <v>495000000</v>
       </c>
@@ -10005,9 +10019,9 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B4" s="10">
         <v>-19.541574000000001</v>
@@ -10030,6 +10044,9 @@
       <c r="H4" s="10">
         <v>0</v>
       </c>
+      <c r="I4" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J4" s="10">
         <v>381800000</v>
       </c>
@@ -10037,9 +10054,9 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="10">
         <v>-19.541574000000001</v>
@@ -10062,6 +10079,9 @@
       <c r="H5" s="10">
         <v>0</v>
       </c>
+      <c r="I5" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J5" s="10">
         <v>725300000</v>
       </c>
@@ -10069,9 +10089,9 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="10">
         <v>-19.541574000000001</v>
@@ -10094,6 +10114,9 @@
       <c r="H6" s="10">
         <v>0</v>
       </c>
+      <c r="I6" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J6" s="10">
         <v>463100000</v>
       </c>
@@ -10101,9 +10124,9 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="10">
         <v>-19.564599999999999</v>
@@ -10126,6 +10149,9 @@
       <c r="H7" s="10">
         <v>0</v>
       </c>
+      <c r="I7" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J7" s="10">
         <v>501800000</v>
       </c>
@@ -10133,9 +10159,9 @@
         <v>3400000.0000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="10">
         <v>-19.564599999999999</v>
@@ -10158,6 +10184,9 @@
       <c r="H8" s="10">
         <v>0</v>
       </c>
+      <c r="I8" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J8" s="10">
         <v>315000000</v>
       </c>
@@ -10165,9 +10194,9 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B9" s="10">
         <v>-19.564599999999999</v>
@@ -10190,6 +10219,9 @@
       <c r="H9" s="10">
         <v>0</v>
       </c>
+      <c r="I9" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J9" s="10">
         <v>209900000.00000003</v>
       </c>
@@ -10197,9 +10229,9 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" s="10">
         <v>-19.564599999999999</v>
@@ -10222,6 +10254,9 @@
       <c r="H10" s="10">
         <v>0</v>
       </c>
+      <c r="I10" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J10" s="10">
         <v>498800000</v>
       </c>
@@ -10229,9 +10264,9 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11" s="10">
         <v>-19.565581999999999</v>
@@ -10254,6 +10289,9 @@
       <c r="H11" s="10">
         <v>0</v>
       </c>
+      <c r="I11" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J11" s="10">
         <v>313400000</v>
       </c>
@@ -10261,9 +10299,9 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B12" s="10">
         <v>-19.565581999999999</v>
@@ -10286,6 +10324,9 @@
       <c r="H12" s="10">
         <v>0</v>
       </c>
+      <c r="I12" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J12" s="10">
         <v>415200000.00000006</v>
       </c>
@@ -10293,9 +10334,9 @@
         <v>2800000.0000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B13" s="10">
         <v>-19.565581999999999</v>
@@ -10318,6 +10359,9 @@
       <c r="H13" s="10">
         <v>0</v>
       </c>
+      <c r="I13" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J13" s="10">
         <v>534600000</v>
       </c>
@@ -10325,9 +10369,9 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B14" s="10">
         <v>-19.565581999999999</v>
@@ -10350,6 +10394,9 @@
       <c r="H14" s="10">
         <v>0</v>
       </c>
+      <c r="I14" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J14" s="10">
         <v>396300000</v>
       </c>
@@ -10357,9 +10404,9 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B15" s="10">
         <v>-19.551714</v>
@@ -10382,6 +10429,9 @@
       <c r="H15" s="10">
         <v>0</v>
       </c>
+      <c r="I15" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J15" s="10">
         <v>1799999.9999999998</v>
       </c>
@@ -10389,9 +10439,9 @@
         <v>700000.00000000012</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B16" s="10">
         <v>-19.551714</v>
@@ -10414,6 +10464,9 @@
       <c r="H16" s="10">
         <v>0</v>
       </c>
+      <c r="I16" s="10">
+        <v>-4.0000000000000001E-3</v>
+      </c>
       <c r="J16" s="10">
         <v>3400000.0000000005</v>
       </c>
@@ -10423,7 +10476,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B17" s="12">
         <v>-19.551714</v>
@@ -10445,6 +10498,9 @@
       </c>
       <c r="H17" s="10">
         <v>0</v>
+      </c>
+      <c r="I17" s="10">
+        <v>-4.0000000000000001E-3</v>
       </c>
       <c r="J17" s="12">
         <v>2300000</v>
@@ -10462,7 +10518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{226C36F8-1236-CF4F-AE99-245EC5C39423}">
   <dimension ref="A1:S171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10526,7 +10582,7 @@
     </row>
     <row r="2" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -10891,12 +10947,12 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14">
         <v>42.597369999999998</v>
@@ -10952,7 +11008,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>42.598289999999999</v>
@@ -10990,7 +11046,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16">
         <v>42.598289999999999</v>
@@ -11028,7 +11084,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B17">
         <v>42.600180000000002</v>
@@ -11066,7 +11122,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B18">
         <v>42.600259999999999</v>
@@ -11104,7 +11160,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>42.62359</v>
@@ -11145,13 +11201,13 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22">
         <v>37.605800000000002</v>
@@ -11207,7 +11263,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B23">
         <v>37.848500000000001</v>
@@ -11245,12 +11301,12 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B26">
         <v>19.061</v>
@@ -11306,7 +11362,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B27">
         <v>19.053999999999998</v>
@@ -11344,7 +11400,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28">
         <v>19.053999999999998</v>
@@ -11382,7 +11438,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B29">
         <v>19.435300000000002</v>
@@ -11420,7 +11476,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B30">
         <v>19.988700000000001</v>
@@ -11458,12 +11514,12 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B33">
         <v>-19.890350000000002</v>
@@ -11489,10 +11545,10 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="102">
+      <c r="J33" s="86">
         <v>15300000</v>
       </c>
-      <c r="K33" s="102">
+      <c r="K33" s="86">
         <v>600000</v>
       </c>
       <c r="M33">
@@ -11519,7 +11575,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B34">
         <v>-19.88982</v>
@@ -11545,10 +11601,10 @@
       <c r="I34">
         <v>0</v>
       </c>
-      <c r="J34" s="102">
+      <c r="J34" s="86">
         <v>15200000</v>
       </c>
-      <c r="K34" s="102">
+      <c r="K34" s="86">
         <v>400000</v>
       </c>
       <c r="R34" s="3">
@@ -11557,7 +11613,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B35">
         <v>-19.89</v>
@@ -11583,10 +11639,10 @@
       <c r="I35">
         <v>0</v>
       </c>
-      <c r="J35" s="102">
+      <c r="J35" s="86">
         <v>15900000</v>
       </c>
-      <c r="K35" s="102">
+      <c r="K35" s="86">
         <v>500000</v>
       </c>
       <c r="R35" s="3">
@@ -11595,7 +11651,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B36">
         <v>-19.88983</v>
@@ -11621,10 +11677,10 @@
       <c r="I36">
         <v>0</v>
       </c>
-      <c r="J36" s="102">
+      <c r="J36" s="86">
         <v>14600000</v>
       </c>
-      <c r="K36" s="102">
+      <c r="K36" s="86">
         <v>400000</v>
       </c>
       <c r="R36" s="3">
@@ -11633,7 +11689,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B37">
         <v>-19.89087</v>
@@ -11659,10 +11715,10 @@
       <c r="I37">
         <v>0</v>
       </c>
-      <c r="J37" s="102">
+      <c r="J37" s="86">
         <v>15100000</v>
       </c>
-      <c r="K37" s="102">
+      <c r="K37" s="86">
         <v>500000</v>
       </c>
       <c r="R37" s="3">
@@ -11671,7 +11727,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B38">
         <v>-19.885670000000001</v>
@@ -11697,10 +11753,10 @@
       <c r="I38">
         <v>0</v>
       </c>
-      <c r="J38" s="102">
+      <c r="J38" s="86">
         <v>14700000</v>
       </c>
-      <c r="K38" s="102">
+      <c r="K38" s="86">
         <v>500000</v>
       </c>
       <c r="R38" s="3">
@@ -11709,7 +11765,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B39">
         <v>-19.885670000000001</v>
@@ -11735,10 +11791,10 @@
       <c r="I39">
         <v>0</v>
       </c>
-      <c r="J39" s="102">
+      <c r="J39" s="86">
         <v>14700000</v>
       </c>
-      <c r="K39" s="102">
+      <c r="K39" s="86">
         <v>700000</v>
       </c>
       <c r="R39" s="3">
@@ -11747,7 +11803,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B40">
         <v>-19.886659999999999</v>
@@ -11773,10 +11829,10 @@
       <c r="I40">
         <v>0</v>
       </c>
-      <c r="J40" s="102">
+      <c r="J40" s="86">
         <v>16300000</v>
       </c>
-      <c r="K40" s="102">
+      <c r="K40" s="86">
         <v>400000</v>
       </c>
       <c r="R40" s="3">
@@ -11785,7 +11841,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B41">
         <v>-19.886659999999999</v>
@@ -11811,10 +11867,10 @@
       <c r="I41">
         <v>0</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J41" s="86">
         <v>16300000</v>
       </c>
-      <c r="K41" s="102">
+      <c r="K41" s="86">
         <v>500000</v>
       </c>
       <c r="R41" s="3">
@@ -11823,7 +11879,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42">
         <v>-19.88785</v>
@@ -11849,10 +11905,10 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42" s="102">
+      <c r="J42" s="86">
         <v>14500000</v>
       </c>
-      <c r="K42" s="102">
+      <c r="K42" s="86">
         <v>600000</v>
       </c>
       <c r="R42" s="3">
@@ -11861,7 +11917,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B43">
         <v>-19.889530000000001</v>
@@ -11887,10 +11943,10 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43" s="102">
+      <c r="J43" s="86">
         <v>15400000</v>
       </c>
-      <c r="K43" s="102">
+      <c r="K43" s="86">
         <v>700000</v>
       </c>
       <c r="R43" s="3">
@@ -11899,7 +11955,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.2">
@@ -12416,12 +12472,12 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B61">
         <v>29.012</v>
@@ -12441,16 +12497,16 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" s="102">
+      <c r="H61" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
-      <c r="J61" s="102">
+      <c r="J61" s="86">
         <v>13700000</v>
       </c>
-      <c r="K61" s="102">
+      <c r="K61" s="86">
         <v>2600000</v>
       </c>
       <c r="M61">
@@ -12477,7 +12533,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B62">
         <v>29.012</v>
@@ -12497,16 +12553,16 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" s="102">
+      <c r="H62" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
-      <c r="J62" s="102">
+      <c r="J62" s="86">
         <v>14700000</v>
       </c>
-      <c r="K62" s="102">
+      <c r="K62" s="86">
         <v>1900000</v>
       </c>
       <c r="R62" s="3">
@@ -12515,7 +12571,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B63">
         <v>29.012</v>
@@ -12535,16 +12591,16 @@
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63" s="102">
+      <c r="H63" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
-      <c r="J63" s="102">
+      <c r="J63" s="86">
         <v>14300000</v>
       </c>
-      <c r="K63" s="102">
+      <c r="K63" s="86">
         <v>1000000</v>
       </c>
       <c r="R63" s="3">
@@ -12553,7 +12609,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B64">
         <v>28.919</v>
@@ -12573,16 +12629,16 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="H64" s="102">
+      <c r="H64" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
-      <c r="J64" s="102">
+      <c r="J64" s="86">
         <v>24100000</v>
       </c>
-      <c r="K64" s="102">
+      <c r="K64" s="86">
         <v>1500000</v>
       </c>
       <c r="R64" s="3">
@@ -12591,7 +12647,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B65">
         <v>28.919</v>
@@ -12611,16 +12667,16 @@
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="102">
+      <c r="H65" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
-      <c r="J65" s="102">
+      <c r="J65" s="86">
         <v>23200000</v>
       </c>
-      <c r="K65" s="102">
+      <c r="K65" s="86">
         <v>1400000</v>
       </c>
       <c r="R65" s="3">
@@ -12629,7 +12685,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B66">
         <v>28.919</v>
@@ -12649,16 +12705,16 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="H66" s="102">
+      <c r="H66" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
-      <c r="J66" s="102">
+      <c r="J66" s="86">
         <v>22300000</v>
       </c>
-      <c r="K66" s="102">
+      <c r="K66" s="86">
         <v>2000000</v>
       </c>
       <c r="R66" s="3">
@@ -12667,7 +12723,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B67">
         <v>28.919</v>
@@ -12687,16 +12743,16 @@
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67" s="102">
+      <c r="H67" s="86">
         <v>1.4800000000000001E-5</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
-      <c r="J67" s="102">
+      <c r="J67" s="86">
         <v>23900000</v>
       </c>
-      <c r="K67" s="102">
+      <c r="K67" s="86">
         <v>2500000</v>
       </c>
       <c r="R67" s="3">
@@ -12705,12 +12761,12 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B70">
         <v>14.894444439999999</v>
@@ -12766,7 +12822,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B71">
         <v>14.894444439999999</v>
@@ -12804,7 +12860,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B72">
         <v>14.89255556</v>
@@ -12842,7 +12898,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B73">
         <v>14.89255556</v>
@@ -12880,7 +12936,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B74">
         <v>14.89255556</v>
@@ -12918,7 +12974,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B75">
         <v>14.89030556</v>
@@ -12956,7 +13012,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B76">
         <v>14.89008333</v>
@@ -12994,7 +13050,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B77">
         <v>14.89008333</v>
@@ -13032,7 +13088,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B78">
         <v>14.89008333</v>
@@ -13070,7 +13126,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B79">
         <v>14.89008333</v>
@@ -13108,7 +13164,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B80">
         <v>14.89008333</v>
@@ -13146,12 +13202,12 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B83">
         <v>19.7</v>
@@ -13177,10 +13233,10 @@
       <c r="I83">
         <v>0</v>
       </c>
-      <c r="J83" s="102">
+      <c r="J83" s="86">
         <v>470000</v>
       </c>
-      <c r="K83" s="102">
+      <c r="K83" s="86">
         <v>161000</v>
       </c>
       <c r="M83">
@@ -13207,7 +13263,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B84">
         <v>19.166699999999999</v>
@@ -13233,10 +13289,10 @@
       <c r="I84">
         <v>0</v>
       </c>
-      <c r="J84" s="102">
+      <c r="J84" s="86">
         <v>90200</v>
       </c>
-      <c r="K84" s="102">
+      <c r="K84" s="86">
         <v>26900</v>
       </c>
       <c r="R84" s="3">
@@ -13245,7 +13301,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B85">
         <v>19.386099999999999</v>
@@ -13271,10 +13327,10 @@
       <c r="I85">
         <v>0</v>
       </c>
-      <c r="J85" s="102">
+      <c r="J85" s="86">
         <v>296000</v>
       </c>
-      <c r="K85" s="102">
+      <c r="K85" s="86">
         <v>24200</v>
       </c>
       <c r="R85" s="3">
@@ -13283,7 +13339,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B86">
         <v>19.3444</v>
@@ -13309,10 +13365,10 @@
       <c r="I86">
         <v>0</v>
       </c>
-      <c r="J86" s="102">
+      <c r="J86" s="86">
         <v>257000</v>
       </c>
-      <c r="K86" s="102">
+      <c r="K86" s="86">
         <v>56400</v>
       </c>
       <c r="R86" s="3">
@@ -13321,7 +13377,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B87">
         <v>19.177800000000001</v>
@@ -13347,10 +13403,10 @@
       <c r="I87">
         <v>0</v>
       </c>
-      <c r="J87" s="102">
+      <c r="J87" s="86">
         <v>98300</v>
       </c>
-      <c r="K87" s="102">
+      <c r="K87" s="86">
         <v>21500</v>
       </c>
       <c r="R87" s="3">
@@ -13359,7 +13415,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B88">
         <v>19.177800000000001</v>
@@ -13385,10 +13441,10 @@
       <c r="I88">
         <v>0</v>
       </c>
-      <c r="J88" s="102">
+      <c r="J88" s="86">
         <v>53400</v>
       </c>
-      <c r="K88" s="102">
+      <c r="K88" s="86">
         <v>24200</v>
       </c>
       <c r="R88" s="3">
@@ -13397,7 +13453,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B89">
         <v>19.144400000000001</v>
@@ -13423,10 +13479,10 @@
       <c r="I89">
         <v>0</v>
       </c>
-      <c r="J89" s="102">
+      <c r="J89" s="86">
         <v>99900</v>
       </c>
-      <c r="K89" s="102">
+      <c r="K89" s="86">
         <v>18800</v>
       </c>
       <c r="R89" s="3">
@@ -13435,7 +13491,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B90">
         <v>19.163900000000002</v>
@@ -13461,10 +13517,10 @@
       <c r="I90">
         <v>0</v>
       </c>
-      <c r="J90" s="102">
+      <c r="J90" s="86">
         <v>153000</v>
       </c>
-      <c r="K90" s="102">
+      <c r="K90" s="86">
         <v>24200</v>
       </c>
       <c r="R90" s="3">
@@ -13473,7 +13529,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B91">
         <v>19.163900000000002</v>
@@ -13499,10 +13555,10 @@
       <c r="I91">
         <v>0</v>
       </c>
-      <c r="J91" s="102">
+      <c r="J91" s="86">
         <v>90000</v>
       </c>
-      <c r="K91" s="102">
+      <c r="K91" s="86">
         <v>24200</v>
       </c>
       <c r="R91" s="3">
@@ -13511,7 +13567,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B92">
         <v>19.175000000000001</v>
@@ -13537,10 +13593,10 @@
       <c r="I92">
         <v>0</v>
       </c>
-      <c r="J92" s="102">
+      <c r="J92" s="86">
         <v>91600</v>
       </c>
-      <c r="K92" s="102">
+      <c r="K92" s="86">
         <v>48300</v>
       </c>
       <c r="R92" s="3">
@@ -13549,7 +13605,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B93">
         <v>19.170000000000002</v>
@@ -13575,10 +13631,10 @@
       <c r="I93">
         <v>0</v>
       </c>
-      <c r="J93" s="102">
+      <c r="J93" s="86">
         <v>93400</v>
       </c>
-      <c r="K93" s="102">
+      <c r="K93" s="86">
         <v>24200</v>
       </c>
       <c r="R93" s="3">
@@ -13587,7 +13643,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B94">
         <v>19.7</v>
@@ -13613,10 +13669,10 @@
       <c r="I94">
         <v>0</v>
       </c>
-      <c r="J94" s="102">
+      <c r="J94" s="86">
         <v>913000</v>
       </c>
-      <c r="K94" s="102">
+      <c r="K94" s="86">
         <v>115000</v>
       </c>
       <c r="R94" s="3">
@@ -13625,7 +13681,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B95">
         <v>19.333300000000001</v>
@@ -13651,10 +13707,10 @@
       <c r="I95">
         <v>0</v>
       </c>
-      <c r="J95" s="102">
+      <c r="J95" s="86">
         <v>336000</v>
       </c>
-      <c r="K95" s="102">
+      <c r="K95" s="86">
         <v>32200</v>
       </c>
       <c r="R95" s="3">
@@ -13663,7 +13719,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B96">
         <v>19.8278</v>
@@ -13689,10 +13745,10 @@
       <c r="I96">
         <v>0</v>
       </c>
-      <c r="J96" s="102">
+      <c r="J96" s="86">
         <v>1390000</v>
       </c>
-      <c r="K96" s="102">
+      <c r="K96" s="86">
         <v>85900</v>
       </c>
       <c r="R96" s="3">
@@ -13701,7 +13757,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B97">
         <v>19.8139</v>
@@ -13727,10 +13783,10 @@
       <c r="I97">
         <v>0</v>
       </c>
-      <c r="J97" s="102">
+      <c r="J97" s="86">
         <v>1380000</v>
       </c>
-      <c r="K97" s="102">
+      <c r="K97" s="86">
         <v>94000</v>
       </c>
       <c r="R97" s="3">
@@ -13739,7 +13795,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B98">
         <v>19.8139</v>
@@ -13765,10 +13821,10 @@
       <c r="I98">
         <v>0</v>
       </c>
-      <c r="J98" s="102">
+      <c r="J98" s="86">
         <v>1030000</v>
       </c>
-      <c r="K98" s="102">
+      <c r="K98" s="86">
         <v>169000</v>
       </c>
       <c r="R98" s="3">
@@ -13777,7 +13833,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B99">
         <v>19.75</v>
@@ -13803,10 +13859,10 @@
       <c r="I99">
         <v>0</v>
       </c>
-      <c r="J99" s="102">
+      <c r="J99" s="86">
         <v>1900000</v>
       </c>
-      <c r="K99" s="102">
+      <c r="K99" s="86">
         <v>209000</v>
       </c>
       <c r="R99" s="3">
@@ -13815,7 +13871,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B100">
         <v>19.675999999999998</v>
@@ -13841,10 +13897,10 @@
       <c r="I100">
         <v>0</v>
       </c>
-      <c r="J100" s="102">
+      <c r="J100" s="86">
         <v>1150000</v>
       </c>
-      <c r="K100" s="102">
+      <c r="K100" s="86">
         <v>64400</v>
       </c>
       <c r="R100" s="3">
@@ -13853,7 +13909,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B101">
         <v>18.927800000000001</v>
@@ -13879,10 +13935,10 @@
       <c r="I101">
         <v>0</v>
       </c>
-      <c r="J101" s="102">
+      <c r="J101" s="86">
         <v>1070000</v>
       </c>
-      <c r="K101" s="102">
+      <c r="K101" s="86">
         <v>72500</v>
       </c>
       <c r="R101" s="3">
@@ -13891,7 +13947,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B102">
         <v>19.066700000000001</v>
@@ -13917,10 +13973,10 @@
       <c r="I102">
         <v>0</v>
       </c>
-      <c r="J102" s="102">
+      <c r="J102" s="86">
         <v>1260000</v>
       </c>
-      <c r="K102" s="102">
+      <c r="K102" s="86">
         <v>61800</v>
       </c>
       <c r="R102" s="3">
@@ -13929,7 +13985,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B103">
         <v>19.855799999999999</v>
@@ -13955,10 +14011,10 @@
       <c r="I103">
         <v>0</v>
       </c>
-      <c r="J103" s="102">
+      <c r="J103" s="86">
         <v>1090000</v>
       </c>
-      <c r="K103" s="102">
+      <c r="K103" s="86">
         <v>53700</v>
       </c>
       <c r="R103" s="3">
@@ -13966,21 +14022,21 @@
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
+      <c r="J104" s="86"/>
+      <c r="K104" s="86"/>
       <c r="R104" s="3"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>234</v>
-      </c>
-      <c r="J105" s="102"/>
-      <c r="K105" s="102"/>
+        <v>232</v>
+      </c>
+      <c r="J105" s="86"/>
+      <c r="K105" s="86"/>
       <c r="R105" s="3"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B106">
         <v>19.655000000000001</v>
@@ -14006,10 +14062,10 @@
       <c r="I106">
         <v>0</v>
       </c>
-      <c r="J106" s="102">
+      <c r="J106" s="86">
         <v>767900</v>
       </c>
-      <c r="K106" s="102">
+      <c r="K106" s="86">
         <v>29353</v>
       </c>
       <c r="M106">
@@ -14036,7 +14092,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B107">
         <v>19.655000000000001</v>
@@ -14062,10 +14118,10 @@
       <c r="I107">
         <v>0</v>
       </c>
-      <c r="J107" s="102">
+      <c r="J107" s="86">
         <v>788864</v>
       </c>
-      <c r="K107" s="102">
+      <c r="K107" s="86">
         <v>27976</v>
       </c>
       <c r="R107" s="3">
@@ -14074,7 +14130,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B108">
         <v>19.655000000000001</v>
@@ -14100,10 +14156,10 @@
       <c r="I108">
         <v>0</v>
       </c>
-      <c r="J108" s="102">
+      <c r="J108" s="86">
         <v>880581</v>
       </c>
-      <c r="K108" s="102">
+      <c r="K108" s="86">
         <v>33875</v>
       </c>
       <c r="R108" s="3">
@@ -14112,7 +14168,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B109">
         <v>19.655000000000001</v>
@@ -14138,10 +14194,10 @@
       <c r="I109">
         <v>0</v>
       </c>
-      <c r="J109" s="102">
+      <c r="J109" s="86">
         <v>758776</v>
       </c>
-      <c r="K109" s="102">
+      <c r="K109" s="86">
         <v>31122</v>
       </c>
       <c r="R109" s="3">
@@ -14150,7 +14206,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B110">
         <v>19.655000000000001</v>
@@ -14176,10 +14232,10 @@
       <c r="I110">
         <v>0</v>
       </c>
-      <c r="J110" s="102">
+      <c r="J110" s="86">
         <v>722309</v>
       </c>
-      <c r="K110" s="102">
+      <c r="K110" s="86">
         <v>47629</v>
       </c>
       <c r="R110" s="3">
@@ -14188,7 +14244,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B111">
         <v>19.655000000000001</v>
@@ -14214,10 +14270,10 @@
       <c r="I111">
         <v>0</v>
       </c>
-      <c r="J111" s="102">
+      <c r="J111" s="86">
         <v>674007</v>
       </c>
-      <c r="K111" s="102">
+      <c r="K111" s="86">
         <v>37835</v>
       </c>
       <c r="R111" s="3">
@@ -14225,18 +14281,18 @@
       </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="J112" s="102"/>
-      <c r="K112" s="102"/>
+      <c r="J112" s="86"/>
+      <c r="K112" s="86"/>
       <c r="R112" s="3"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B115">
         <v>64.384299999999996</v>
@@ -14262,10 +14318,10 @@
       <c r="I115">
         <v>0</v>
       </c>
-      <c r="J115" s="102">
+      <c r="J115" s="86">
         <v>770000</v>
       </c>
-      <c r="K115" s="102">
+      <c r="K115" s="86">
         <v>60000</v>
       </c>
       <c r="M115">
@@ -14292,7 +14348,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B116">
         <v>64.383600000000001</v>
@@ -14318,10 +14374,10 @@
       <c r="I116">
         <v>0</v>
       </c>
-      <c r="J116" s="102">
+      <c r="J116" s="86">
         <v>730000</v>
       </c>
-      <c r="K116" s="102">
+      <c r="K116" s="86">
         <v>90000</v>
       </c>
       <c r="R116" s="3">
@@ -14330,7 +14386,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B117">
         <v>64.364400000000003</v>
@@ -14356,10 +14412,10 @@
       <c r="I117">
         <v>0</v>
       </c>
-      <c r="J117" s="102">
+      <c r="J117" s="86">
         <v>860000</v>
       </c>
-      <c r="K117" s="102">
+      <c r="K117" s="86">
         <v>70000</v>
       </c>
       <c r="R117" s="3">
@@ -14368,7 +14424,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B118">
         <v>64.362899999999996</v>
@@ -14394,10 +14450,10 @@
       <c r="I118">
         <v>0</v>
       </c>
-      <c r="J118" s="102">
+      <c r="J118" s="86">
         <v>820000</v>
       </c>
-      <c r="K118" s="102">
+      <c r="K118" s="86">
         <v>130000</v>
       </c>
       <c r="R118" s="3">
@@ -14406,7 +14462,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B119">
         <v>63.9726</v>
@@ -14432,10 +14488,10 @@
       <c r="I119">
         <v>0</v>
       </c>
-      <c r="J119" s="102">
+      <c r="J119" s="86">
         <v>820000</v>
       </c>
-      <c r="K119" s="102">
+      <c r="K119" s="86">
         <v>60000</v>
       </c>
       <c r="R119" s="3">
@@ -14444,7 +14500,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B120">
         <v>63.973799999999997</v>
@@ -14470,10 +14526,10 @@
       <c r="I120">
         <v>0</v>
       </c>
-      <c r="J120" s="102">
+      <c r="J120" s="86">
         <v>930000</v>
       </c>
-      <c r="K120" s="102">
+      <c r="K120" s="86">
         <v>50000</v>
       </c>
       <c r="R120" s="3">
@@ -14482,7 +14538,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B121">
         <v>63.976500000000001</v>
@@ -14508,10 +14564,10 @@
       <c r="I121">
         <v>0</v>
       </c>
-      <c r="J121" s="102">
+      <c r="J121" s="86">
         <v>890000</v>
       </c>
-      <c r="K121" s="102">
+      <c r="K121" s="86">
         <v>60000</v>
       </c>
       <c r="R121" s="3">
@@ -14520,7 +14576,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B122">
         <v>63.982199999999999</v>
@@ -14546,10 +14602,10 @@
       <c r="I122">
         <v>0</v>
       </c>
-      <c r="J122" s="102">
+      <c r="J122" s="86">
         <v>960000</v>
       </c>
-      <c r="K122" s="102">
+      <c r="K122" s="86">
         <v>80000</v>
       </c>
       <c r="R122" s="3">
@@ -14558,7 +14614,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B123">
         <v>63.983899999999998</v>
@@ -14584,10 +14640,10 @@
       <c r="I123">
         <v>0</v>
       </c>
-      <c r="J123" s="102">
+      <c r="J123" s="86">
         <v>1050000</v>
       </c>
-      <c r="K123" s="102">
+      <c r="K123" s="86">
         <v>80000</v>
       </c>
       <c r="R123" s="3">
@@ -14596,7 +14652,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B124">
         <v>63.983800000000002</v>
@@ -14622,10 +14678,10 @@
       <c r="I124">
         <v>0</v>
       </c>
-      <c r="J124" s="102">
+      <c r="J124" s="86">
         <v>920000</v>
       </c>
-      <c r="K124" s="102">
+      <c r="K124" s="86">
         <v>70000</v>
       </c>
       <c r="R124" s="3">
@@ -14634,7 +14690,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B125">
         <v>64.059200000000004</v>
@@ -14660,10 +14716,10 @@
       <c r="I125">
         <v>0</v>
       </c>
-      <c r="J125" s="102">
+      <c r="J125" s="86">
         <v>1260000</v>
       </c>
-      <c r="K125" s="102">
+      <c r="K125" s="86">
         <v>40000</v>
       </c>
       <c r="R125" s="3">
@@ -14672,7 +14728,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B126">
         <v>64.089200000000005</v>
@@ -14698,10 +14754,10 @@
       <c r="I126">
         <v>0</v>
       </c>
-      <c r="J126" s="102">
+      <c r="J126" s="86">
         <v>1130000</v>
       </c>
-      <c r="K126" s="102">
+      <c r="K126" s="86">
         <v>30000</v>
       </c>
       <c r="R126" s="3">
@@ -14710,7 +14766,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B127">
         <v>64.089600000000004</v>
@@ -14736,10 +14792,10 @@
       <c r="I127">
         <v>0</v>
       </c>
-      <c r="J127" s="102">
+      <c r="J127" s="86">
         <v>1260000</v>
       </c>
-      <c r="K127" s="102">
+      <c r="K127" s="86">
         <v>70000</v>
       </c>
       <c r="R127" s="3">
@@ -14748,7 +14804,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B128">
         <v>64.0869</v>
@@ -14774,10 +14830,10 @@
       <c r="I128">
         <v>0</v>
       </c>
-      <c r="J128" s="102">
+      <c r="J128" s="86">
         <v>1170000</v>
       </c>
-      <c r="K128" s="102">
+      <c r="K128" s="86">
         <v>120000</v>
       </c>
       <c r="R128" s="3">
@@ -14786,7 +14842,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B129">
         <v>64.091700000000003</v>
@@ -14812,10 +14868,10 @@
       <c r="I129">
         <v>0</v>
       </c>
-      <c r="J129" s="102">
+      <c r="J129" s="86">
         <v>1140000</v>
       </c>
-      <c r="K129" s="102">
+      <c r="K129" s="86">
         <v>50000</v>
       </c>
       <c r="R129" s="3">
@@ -14824,7 +14880,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B130">
         <v>64.091700000000003</v>
@@ -14850,10 +14906,10 @@
       <c r="I130">
         <v>0</v>
       </c>
-      <c r="J130" s="102">
+      <c r="J130" s="86">
         <v>1100000</v>
       </c>
-      <c r="K130" s="102">
+      <c r="K130" s="86">
         <v>30000</v>
       </c>
       <c r="R130" s="3">
@@ -14862,7 +14918,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B131">
         <v>64.093500000000006</v>
@@ -14888,10 +14944,10 @@
       <c r="I131">
         <v>0</v>
       </c>
-      <c r="J131" s="102">
+      <c r="J131" s="86">
         <v>990000</v>
       </c>
-      <c r="K131" s="102">
+      <c r="K131" s="86">
         <v>40000</v>
       </c>
       <c r="R131" s="3">
@@ -14900,7 +14956,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B132">
         <v>64.087100000000007</v>
@@ -14926,10 +14982,10 @@
       <c r="I132">
         <v>0</v>
       </c>
-      <c r="J132" s="102">
+      <c r="J132" s="86">
         <v>1070000</v>
       </c>
-      <c r="K132" s="102">
+      <c r="K132" s="86">
         <v>30000</v>
       </c>
       <c r="R132" s="3">
@@ -14938,7 +14994,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B133">
         <v>64.164500000000004</v>
@@ -14964,10 +15020,10 @@
       <c r="I133">
         <v>0</v>
       </c>
-      <c r="J133" s="102">
+      <c r="J133" s="86">
         <v>1530000</v>
       </c>
-      <c r="K133" s="102">
+      <c r="K133" s="86">
         <v>60000</v>
       </c>
       <c r="R133" s="3">
@@ -14976,7 +15032,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B134">
         <v>64.164900000000003</v>
@@ -15002,10 +15058,10 @@
       <c r="I134">
         <v>0</v>
       </c>
-      <c r="J134" s="102">
+      <c r="J134" s="86">
         <v>1170000</v>
       </c>
-      <c r="K134" s="102">
+      <c r="K134" s="86">
         <v>80000</v>
       </c>
       <c r="R134" s="3">
@@ -15014,7 +15070,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B135">
         <v>64.156199999999998</v>
@@ -15040,10 +15096,10 @@
       <c r="I135">
         <v>0</v>
       </c>
-      <c r="J135" s="102">
+      <c r="J135" s="86">
         <v>1550000</v>
       </c>
-      <c r="K135" s="102">
+      <c r="K135" s="86">
         <v>60000</v>
       </c>
       <c r="R135" s="3">
@@ -15052,7 +15108,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B136">
         <v>64.156099999999995</v>
@@ -15078,10 +15134,10 @@
       <c r="I136">
         <v>0</v>
       </c>
-      <c r="J136" s="102">
+      <c r="J136" s="86">
         <v>1710000</v>
       </c>
-      <c r="K136" s="102">
+      <c r="K136" s="86">
         <v>120000</v>
       </c>
       <c r="R136" s="3">
@@ -15090,12 +15146,12 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B139">
         <v>44.29</v>
@@ -15121,10 +15177,10 @@
       <c r="I139">
         <v>0</v>
       </c>
-      <c r="J139" s="102">
+      <c r="J139" s="86">
         <v>961000</v>
       </c>
-      <c r="K139" s="102">
+      <c r="K139" s="86">
         <v>30000</v>
       </c>
       <c r="M139">
@@ -15151,7 +15207,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B140">
         <v>44.276400000000002</v>
@@ -15177,10 +15233,10 @@
       <c r="I140">
         <v>0</v>
       </c>
-      <c r="J140" s="102">
+      <c r="J140" s="86">
         <v>967000</v>
       </c>
-      <c r="K140" s="102">
+      <c r="K140" s="86">
         <v>27000</v>
       </c>
       <c r="R140" s="3">
@@ -15189,7 +15245,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B141">
         <v>44.259399999999999</v>
@@ -15215,10 +15271,10 @@
       <c r="I141">
         <v>0</v>
       </c>
-      <c r="J141" s="102">
+      <c r="J141" s="86">
         <v>952000</v>
       </c>
-      <c r="K141" s="102">
+      <c r="K141" s="86">
         <v>31000</v>
       </c>
       <c r="R141" s="3">
@@ -15227,7 +15283,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B142">
         <v>44.270899999999997</v>
@@ -15253,10 +15309,10 @@
       <c r="I142">
         <v>0</v>
       </c>
-      <c r="J142" s="102">
+      <c r="J142" s="86">
         <v>845000</v>
       </c>
-      <c r="K142" s="102">
+      <c r="K142" s="86">
         <v>18000</v>
       </c>
       <c r="R142" s="3">
@@ -15265,7 +15321,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B143">
         <v>44.27</v>
@@ -15291,10 +15347,10 @@
       <c r="I143">
         <v>0</v>
       </c>
-      <c r="J143" s="102">
+      <c r="J143" s="86">
         <v>820000</v>
       </c>
-      <c r="K143" s="102">
+      <c r="K143" s="86">
         <v>57000</v>
       </c>
       <c r="R143" s="3">
@@ -15303,7 +15359,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B144">
         <v>44.240900000000003</v>
@@ -15329,10 +15385,10 @@
       <c r="I144">
         <v>0</v>
       </c>
-      <c r="J144" s="102">
+      <c r="J144" s="86">
         <v>1090000</v>
       </c>
-      <c r="K144" s="102">
+      <c r="K144" s="86">
         <v>30000</v>
       </c>
       <c r="R144" s="3">
@@ -15341,7 +15397,7 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B145">
         <v>44.25</v>
@@ -15367,10 +15423,10 @@
       <c r="I145">
         <v>0</v>
       </c>
-      <c r="J145" s="102">
+      <c r="J145" s="86">
         <v>785000</v>
       </c>
-      <c r="K145" s="102">
+      <c r="K145" s="86">
         <v>70000</v>
       </c>
       <c r="R145" s="3">
@@ -15379,7 +15435,7 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B146">
         <v>44.25</v>
@@ -15405,10 +15461,10 @@
       <c r="I146">
         <v>0</v>
       </c>
-      <c r="J146" s="102">
+      <c r="J146" s="86">
         <v>851000</v>
       </c>
-      <c r="K146" s="102">
+      <c r="K146" s="86">
         <v>41000</v>
       </c>
       <c r="R146" s="3">
@@ -15417,7 +15473,7 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B147">
         <v>44.24</v>
@@ -15443,10 +15499,10 @@
       <c r="I147">
         <v>0</v>
       </c>
-      <c r="J147" s="102">
+      <c r="J147" s="86">
         <v>1230000</v>
       </c>
-      <c r="K147" s="102">
+      <c r="K147" s="86">
         <v>110000</v>
       </c>
       <c r="R147" s="3">
@@ -15455,7 +15511,7 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B148">
         <v>44.24</v>
@@ -15481,10 +15537,10 @@
       <c r="I148">
         <v>0</v>
       </c>
-      <c r="J148" s="102">
+      <c r="J148" s="86">
         <v>976000</v>
       </c>
-      <c r="K148" s="102">
+      <c r="K148" s="86">
         <v>45000</v>
       </c>
       <c r="R148" s="3">
@@ -15493,7 +15549,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B149">
         <v>44.240600000000001</v>
@@ -15519,10 +15575,10 @@
       <c r="I149">
         <v>0</v>
       </c>
-      <c r="J149" s="102">
+      <c r="J149" s="86">
         <v>846000</v>
       </c>
-      <c r="K149" s="102">
+      <c r="K149" s="86">
         <v>47000</v>
       </c>
       <c r="R149" s="3">
@@ -15531,7 +15587,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B150">
         <v>44.2408</v>
@@ -15557,10 +15613,10 @@
       <c r="I150">
         <v>0</v>
       </c>
-      <c r="J150" s="102">
+      <c r="J150" s="86">
         <v>953000</v>
       </c>
-      <c r="K150" s="102">
+      <c r="K150" s="86">
         <v>34000</v>
       </c>
       <c r="R150" s="3">
@@ -15569,7 +15625,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151">
         <v>44.370100000000001</v>
@@ -15595,10 +15651,10 @@
       <c r="I151">
         <v>0</v>
       </c>
-      <c r="J151" s="102">
+      <c r="J151" s="86">
         <v>667000</v>
       </c>
-      <c r="K151" s="102">
+      <c r="K151" s="86">
         <v>24000</v>
       </c>
       <c r="R151" s="3">
@@ -15607,7 +15663,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B152">
         <v>44.365499999999997</v>
@@ -15633,10 +15689,10 @@
       <c r="I152">
         <v>0</v>
       </c>
-      <c r="J152" s="102">
+      <c r="J152" s="86">
         <v>715000</v>
       </c>
-      <c r="K152" s="102">
+      <c r="K152" s="86">
         <v>55000</v>
       </c>
       <c r="R152" s="3">
@@ -15645,7 +15701,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B153">
         <v>44.365499999999997</v>
@@ -15671,10 +15727,10 @@
       <c r="I153">
         <v>0</v>
       </c>
-      <c r="J153" s="102">
+      <c r="J153" s="86">
         <v>644000</v>
       </c>
-      <c r="K153" s="102">
+      <c r="K153" s="86">
         <v>86000</v>
       </c>
       <c r="R153" s="3">
@@ -15683,7 +15739,7 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B154">
         <v>44.363700000000001</v>
@@ -15709,10 +15765,10 @@
       <c r="I154">
         <v>0</v>
       </c>
-      <c r="J154" s="102">
+      <c r="J154" s="86">
         <v>577000</v>
       </c>
-      <c r="K154" s="102">
+      <c r="K154" s="86">
         <v>36000</v>
       </c>
       <c r="R154" s="3">
@@ -15721,7 +15777,7 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B155">
         <v>44.364600000000003</v>
@@ -15747,10 +15803,10 @@
       <c r="I155">
         <v>0</v>
       </c>
-      <c r="J155" s="102">
+      <c r="J155" s="86">
         <v>674000</v>
       </c>
-      <c r="K155" s="102">
+      <c r="K155" s="86">
         <v>48000</v>
       </c>
       <c r="R155" s="3">
@@ -15759,7 +15815,7 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B156">
         <v>44.368899999999996</v>
@@ -15785,10 +15841,10 @@
       <c r="I156">
         <v>0</v>
       </c>
-      <c r="J156" s="102">
+      <c r="J156" s="86">
         <v>696000</v>
       </c>
-      <c r="K156" s="102">
+      <c r="K156" s="86">
         <v>52000</v>
       </c>
       <c r="R156" s="3">
@@ -15797,7 +15853,7 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B157">
         <v>43.376300000000001</v>
@@ -15823,10 +15879,10 @@
       <c r="I157">
         <v>0</v>
       </c>
-      <c r="J157" s="102">
+      <c r="J157" s="86">
         <v>2310000</v>
       </c>
-      <c r="K157" s="102">
+      <c r="K157" s="86">
         <v>109000</v>
       </c>
       <c r="R157" s="3">
@@ -15835,7 +15891,7 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B158">
         <v>43.985999999999997</v>
@@ -15861,10 +15917,10 @@
       <c r="I158">
         <v>0</v>
       </c>
-      <c r="J158" s="102">
+      <c r="J158" s="86">
         <v>2080000</v>
       </c>
-      <c r="K158" s="102">
+      <c r="K158" s="86">
         <v>78000</v>
       </c>
       <c r="R158" s="3">
@@ -15876,7 +15932,7 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="R160" s="3"/>
     </row>
@@ -15938,12 +15994,12 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B164">
         <v>38.930199999999999</v>
@@ -15969,10 +16025,10 @@
       <c r="I164">
         <v>0</v>
       </c>
-      <c r="J164" s="102">
+      <c r="J164" s="86">
         <v>6280000</v>
       </c>
-      <c r="K164" s="102">
+      <c r="K164" s="86">
         <v>110000</v>
       </c>
       <c r="M164">
@@ -15999,7 +16055,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B165">
         <v>38.930100000000003</v>
@@ -16025,10 +16081,10 @@
       <c r="I165">
         <v>0</v>
       </c>
-      <c r="J165" s="102">
+      <c r="J165" s="86">
         <v>5890000</v>
       </c>
-      <c r="K165" s="102">
+      <c r="K165" s="86">
         <v>120000</v>
       </c>
       <c r="R165" s="3">
@@ -16037,7 +16093,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B166">
         <v>38.930500000000002</v>
@@ -16063,10 +16119,10 @@
       <c r="I166">
         <v>0</v>
       </c>
-      <c r="J166" s="102">
+      <c r="J166" s="86">
         <v>6100000</v>
       </c>
-      <c r="K166" s="102">
+      <c r="K166" s="86">
         <v>110000</v>
       </c>
       <c r="R166" s="3">
@@ -16075,7 +16131,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B167">
         <v>38.930100000000003</v>
@@ -16101,10 +16157,10 @@
       <c r="I167">
         <v>0</v>
       </c>
-      <c r="J167" s="102">
+      <c r="J167" s="86">
         <v>6070000</v>
       </c>
-      <c r="K167" s="102">
+      <c r="K167" s="86">
         <v>100000</v>
       </c>
       <c r="R167" s="3">
@@ -16113,7 +16169,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B168">
         <v>38.929900000000004</v>
@@ -16139,10 +16195,10 @@
       <c r="I168">
         <v>0</v>
       </c>
-      <c r="J168" s="102">
+      <c r="J168" s="86">
         <v>6180000</v>
       </c>
-      <c r="K168" s="102">
+      <c r="K168" s="86">
         <v>120000</v>
       </c>
       <c r="R168" s="3">
@@ -16151,7 +16207,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B169">
         <v>38.930100000000003</v>
@@ -16177,10 +16233,10 @@
       <c r="I169">
         <v>0</v>
       </c>
-      <c r="J169" s="102">
+      <c r="J169" s="86">
         <v>6270000</v>
       </c>
-      <c r="K169" s="102">
+      <c r="K169" s="86">
         <v>150000</v>
       </c>
       <c r="R169" s="3">
@@ -16189,7 +16245,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B170">
         <v>38.930799999999998</v>
@@ -16215,10 +16271,10 @@
       <c r="I170">
         <v>0</v>
       </c>
-      <c r="J170" s="102">
+      <c r="J170" s="86">
         <v>6000000</v>
       </c>
-      <c r="K170" s="102">
+      <c r="K170" s="86">
         <v>100000</v>
       </c>
       <c r="R170" s="3">
@@ -16227,7 +16283,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B171">
         <v>38.930100000000003</v>
@@ -16253,10 +16309,10 @@
       <c r="I171">
         <v>0</v>
       </c>
-      <c r="J171" s="102">
+      <c r="J171" s="86">
         <v>6020000</v>
       </c>
-      <c r="K171" s="102">
+      <c r="K171" s="86">
         <v>110000</v>
       </c>
       <c r="R171" s="3">
@@ -16269,788 +16325,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51BC4F-4FA9-A94D-BF63-329E5B1EEEA8}">
-  <dimension ref="A1:S52"/>
-  <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-46.700099999999999</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-70.750299999999996</v>
-      </c>
-      <c r="D2" s="4">
-        <v>530</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2.42</v>
-      </c>
-      <c r="G2" s="3">
-        <v>1</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>24300000</v>
-      </c>
-      <c r="K2" s="5">
-        <v>400000</v>
-      </c>
-      <c r="M2">
-        <v>3</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-46.700299999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-70.746799999999993</v>
-      </c>
-      <c r="D3" s="6">
-        <v>530</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="F3" s="8">
-        <v>2.31</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>25100000</v>
-      </c>
-      <c r="K3" s="5">
-        <v>300000</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-46.619900000000001</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-70.796700000000001</v>
-      </c>
-      <c r="D4" s="8">
-        <v>400</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1.8</v>
-      </c>
-      <c r="F4" s="8">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="G4" s="3">
-        <v>1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>21800000</v>
-      </c>
-      <c r="K4" s="5">
-        <v>200000</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-46.619599999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-70.795199999999994</v>
-      </c>
-      <c r="D5" s="4">
-        <v>400</v>
-      </c>
-      <c r="E5" s="7">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F5" s="8">
-        <v>2.34</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>22000000</v>
-      </c>
-      <c r="K5" s="5">
-        <v>600000</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-46.5914</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-70.675200000000004</v>
-      </c>
-      <c r="D6" s="6">
-        <v>380</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G6" s="3">
-        <v>1</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>21500000</v>
-      </c>
-      <c r="K6" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-47.067999999999998</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-70.896699999999996</v>
-      </c>
-      <c r="D7" s="8">
-        <v>900</v>
-      </c>
-      <c r="E7" s="7">
-        <v>2</v>
-      </c>
-      <c r="F7" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>19500000</v>
-      </c>
-      <c r="K7" s="5">
-        <v>300000</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-47.067999999999998</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-70.896699999999996</v>
-      </c>
-      <c r="D8" s="4">
-        <v>900</v>
-      </c>
-      <c r="E8" s="7">
-        <v>2</v>
-      </c>
-      <c r="F8" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>19100000</v>
-      </c>
-      <c r="K8" s="5">
-        <v>200000</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-47.067999999999998</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-70.896699999999996</v>
-      </c>
-      <c r="D9" s="6">
-        <v>905</v>
-      </c>
-      <c r="E9" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="F9" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>20500000</v>
-      </c>
-      <c r="K9" s="5">
-        <v>300000</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-47.067999999999998</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-70.896699999999996</v>
-      </c>
-      <c r="D10" s="8">
-        <v>905</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3.5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>18800000</v>
-      </c>
-      <c r="K10" s="5">
-        <v>300000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="R12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="E32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="E35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="3"/>
-      <c r="R36" s="3"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="3"/>
-      <c r="R37" s="3"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="3"/>
-      <c r="R38" s="3"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="3"/>
-      <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A40" s="14"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="3"/>
-      <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="3"/>
-      <c r="R41" s="3"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="3"/>
-      <c r="R42" s="3"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A43" s="14"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="3"/>
-      <c r="R43" s="3"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="3"/>
-      <c r="R44" s="3"/>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="3"/>
-      <c r="R45" s="3"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A46" s="14"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="3"/>
-      <c r="R46" s="3"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="3"/>
-      <c r="R47" s="3"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="3"/>
-      <c r="R48" s="3"/>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A49" s="14"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="3"/>
-      <c r="R49" s="3"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="3"/>
-      <c r="R50" s="3"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="3"/>
-      <c r="R51" s="3"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A52" s="14"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="3"/>
-      <c r="R52" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A849F5E-B2B5-204F-B0E0-43BE2999DDC2}">
   <dimension ref="A1:S28"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17159,7 +16438,7 @@
         <v>30</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="J2" s="15" t="s">
         <v>30</v>
@@ -17169,25 +16448,25 @@
       </c>
       <c r="L2" s="18"/>
       <c r="M2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="P2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="15" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="15" t="s">
-        <v>36</v>
       </c>
       <c r="R2" s="15" t="s">
         <v>30</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="15" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -17195,7 +16474,7 @@
       <c r="C3" s="16"/>
       <c r="H3" s="17"/>
       <c r="I3" s="17" t="s">
-        <v>38</v>
+        <v>294</v>
       </c>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
@@ -17295,208 +16574,208 @@
       <c r="K14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="D15" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="94" t="s">
+      <c r="E15" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="F15" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="G15" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="95" t="s">
+      <c r="H15" s="97" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="25" t="s">
+      <c r="I15" s="98" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="96" t="s">
+      <c r="J15" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="I15" s="97" t="s">
+      <c r="K15" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="99" t="s">
+      <c r="N15" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="M15" s="25" t="s">
+      <c r="O15" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="N15" s="26" t="s">
+      <c r="P15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="O15" s="25" t="s">
+      <c r="R15" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S15" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="P15" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q15" s="25" t="s">
+    </row>
+    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="R15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="28" t="s">
+      <c r="H16" s="97"/>
+      <c r="I16" s="99"/>
+      <c r="J16" s="100"/>
+      <c r="K16" s="100"/>
+      <c r="M16" s="29" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="94"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="100" t="s">
+      <c r="N16" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="H16" s="96"/>
-      <c r="I16" s="98"/>
-      <c r="J16" s="99"/>
-      <c r="K16" s="99"/>
-      <c r="M16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>56</v>
       </c>
       <c r="O16" s="29"/>
       <c r="P16" s="31"/>
       <c r="Q16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="S16" s="87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
+      <c r="M17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="S16" s="86" t="s">
+      <c r="N17" s="20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="96"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
-      <c r="M17" s="29" t="s">
+      <c r="O17" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="N17" s="20" t="s">
+      <c r="P17" s="90" t="s">
         <v>60</v>
       </c>
-      <c r="O17" s="87" t="s">
+      <c r="Q17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="P17" s="89" t="s">
+      <c r="S17" s="87"/>
+    </row>
+    <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="99"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="M18" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="Q17" s="29" t="s">
+      <c r="O18" s="88"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="S17" s="86"/>
-    </row>
-    <row r="18" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="96"/>
-      <c r="I18" s="98"/>
-      <c r="J18" s="99"/>
-      <c r="K18" s="99"/>
-      <c r="M18" s="32" t="s">
+      <c r="S18" s="87"/>
+    </row>
+    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
+      <c r="G19" s="102"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="O19" s="89"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="O18" s="87"/>
-      <c r="P18" s="89"/>
-      <c r="Q18" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="S18" s="86"/>
-    </row>
-    <row r="19" spans="1:19" ht="19" x14ac:dyDescent="0.25">
-      <c r="G19" s="101"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="98"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="90"/>
-      <c r="Q19" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="S19" s="86"/>
+      <c r="S19" s="87"/>
     </row>
     <row r="20" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H20" s="33"/>
       <c r="I20" s="34"/>
-      <c r="P20" s="91" t="s">
-        <v>67</v>
+      <c r="P20" s="92" t="s">
+        <v>65</v>
       </c>
       <c r="Q20" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="S20" s="86"/>
+        <v>66</v>
+      </c>
+      <c r="S20" s="87"/>
     </row>
     <row r="21" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
-      <c r="P21" s="92"/>
+      <c r="P21" s="93"/>
       <c r="Q21" s="35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="19" x14ac:dyDescent="0.25">
       <c r="H22" s="34"/>
       <c r="I22" s="34"/>
-      <c r="P22" s="92"/>
+      <c r="P22" s="93"/>
       <c r="Q22" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H23" s="34"/>
       <c r="I23" s="34"/>
-      <c r="P23" s="92"/>
+      <c r="P23" s="93"/>
     </row>
     <row r="24" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
-      <c r="P24" s="92"/>
+      <c r="P24" s="93"/>
     </row>
     <row r="25" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H25" s="34"/>
       <c r="I25" s="34"/>
-      <c r="P25" s="92"/>
+      <c r="P25" s="93"/>
     </row>
     <row r="26" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
-      <c r="P26" s="92"/>
+      <c r="P26" s="93"/>
     </row>
     <row r="27" spans="1:19" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
-      <c r="P27" s="92"/>
+      <c r="P27" s="93"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="P28" s="93"/>
+      <c r="P28" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -17516,6 +16795,783 @@
     <mergeCell ref="K15:K19"/>
     <mergeCell ref="G16:G19"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A51BC4F-4FA9-A94D-BF63-329E5B1EEEA8}">
+  <dimension ref="A1:S52"/>
+  <sheetViews>
+    <sheetView zoomScale="92" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="30" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4">
+        <v>-46.700099999999999</v>
+      </c>
+      <c r="C2" s="4">
+        <v>-70.750299999999996</v>
+      </c>
+      <c r="D2" s="4">
+        <v>530</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2.42</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>24300000</v>
+      </c>
+      <c r="K2" s="5">
+        <v>400000</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
+        <v>-46.700299999999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>-70.746799999999993</v>
+      </c>
+      <c r="D3" s="6">
+        <v>530</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.31</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>25100000</v>
+      </c>
+      <c r="K3" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>-46.619900000000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>-70.796700000000001</v>
+      </c>
+      <c r="D4" s="8">
+        <v>400</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="8">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>21800000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>200000</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="4">
+        <v>-46.619599999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>-70.795199999999994</v>
+      </c>
+      <c r="D5" s="4">
+        <v>400</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2.34</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>22000000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>600000</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>-46.5914</v>
+      </c>
+      <c r="C6" s="4">
+        <v>-70.675200000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>380</v>
+      </c>
+      <c r="E6" s="7">
+        <v>4</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>21500000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C7" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D7" s="8">
+        <v>900</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>19500000</v>
+      </c>
+      <c r="K7" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>900</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>19100000</v>
+      </c>
+      <c r="K8" s="5">
+        <v>200000</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D9" s="6">
+        <v>905</v>
+      </c>
+      <c r="E9" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F9" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>20500000</v>
+      </c>
+      <c r="K9" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>-47.067999999999998</v>
+      </c>
+      <c r="C10" s="4">
+        <v>-70.896699999999996</v>
+      </c>
+      <c r="D10" s="8">
+        <v>905</v>
+      </c>
+      <c r="E10" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>18800000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>300000</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="13"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="E32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="3"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="14"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="3"/>
+      <c r="R37" s="3"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="3"/>
+      <c r="R38" s="3"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="14"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="3"/>
+      <c r="R41" s="3"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="3"/>
+      <c r="R42" s="3"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="14"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="3"/>
+      <c r="R43" s="3"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="3"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="3"/>
+      <c r="R44" s="3"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="3"/>
+      <c r="R45" s="3"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="14"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="3"/>
+      <c r="R46" s="3"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="3"/>
+      <c r="R47" s="3"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="3"/>
+      <c r="R48" s="3"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="14"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="3"/>
+      <c r="R49" s="3"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="3"/>
+      <c r="R50" s="3"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="3"/>
+      <c r="R51" s="3"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="14"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="3"/>
+      <c r="R52" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -17597,7 +17653,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B2">
         <v>65</v>
@@ -17632,7 +17688,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3">
         <v>65</v>
@@ -17649,7 +17705,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>65</v>
@@ -17666,7 +17722,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>65</v>
@@ -17683,7 +17739,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6">
         <v>65</v>
@@ -17700,7 +17756,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>65</v>
@@ -17717,7 +17773,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8">
         <v>65</v>
@@ -17734,7 +17790,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9">
         <v>65</v>
@@ -17751,7 +17807,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B10">
         <v>65</v>
@@ -17768,7 +17824,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B11">
         <v>65</v>
@@ -17785,7 +17841,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12">
         <v>65</v>
@@ -17802,7 +17858,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>65</v>
@@ -17819,7 +17875,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>65</v>
@@ -17836,7 +17892,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B15">
         <v>65</v>
@@ -17853,7 +17909,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16">
         <v>65</v>
@@ -17870,7 +17926,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B17">
         <v>65</v>
@@ -17887,7 +17943,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B18">
         <v>65</v>
@@ -17904,7 +17960,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -17921,7 +17977,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -17938,7 +17994,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -17955,7 +18011,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -17972,7 +18028,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -17989,7 +18045,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -18006,7 +18062,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -18023,7 +18079,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -18040,7 +18096,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -18057,7 +18113,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -18077,7 +18133,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -18097,7 +18153,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -18117,7 +18173,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -18137,7 +18193,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -18157,7 +18213,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -18177,7 +18233,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -18197,7 +18253,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -18501,7 +18557,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>-20</v>
@@ -18557,7 +18613,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4">
         <v>-20</v>
@@ -18589,7 +18645,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4">
         <v>-20</v>
@@ -18621,7 +18677,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4">
         <v>-20</v>
@@ -18653,7 +18709,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4">
         <v>-20</v>
@@ -18685,7 +18741,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4">
         <v>-20</v>
@@ -18717,7 +18773,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4">
         <v>-20</v>
@@ -18749,7 +18805,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4">
         <v>-20</v>
@@ -18781,7 +18837,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4">
         <v>-20</v>
@@ -18813,7 +18869,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4">
         <v>-20</v>
@@ -18845,7 +18901,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4">
         <v>-20</v>
@@ -19437,10 +19493,10 @@
         <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -19454,7 +19510,7 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="6">
         <v>40</v>
@@ -19511,7 +19567,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B3" s="6">
         <v>40</v>
@@ -19547,7 +19603,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B4" s="6">
         <v>40</v>
@@ -19583,7 +19639,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B5" s="6">
         <v>40</v>
@@ -19619,7 +19675,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6">
         <v>40</v>
@@ -19655,7 +19711,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="6">
         <v>40</v>
@@ -19691,7 +19747,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="6">
         <v>40</v>
@@ -19727,7 +19783,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B9" s="6">
         <v>40</v>
@@ -19763,7 +19819,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B10" s="6">
         <v>40</v>
@@ -19799,7 +19855,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="6">
         <v>40</v>
@@ -19835,7 +19891,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="6">
         <v>40</v>
@@ -19871,7 +19927,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="6">
         <v>40</v>
@@ -19907,7 +19963,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B14" s="6">
         <v>40</v>
@@ -19943,7 +19999,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6">
         <v>40</v>
@@ -19979,7 +20035,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B16" s="6">
         <v>40</v>
@@ -20015,7 +20071,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="6">
         <v>40</v>
@@ -20051,7 +20107,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B18" s="6">
         <v>40</v>
@@ -20334,7 +20390,7 @@
   <sheetData>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>45</v>
@@ -20489,10 +20545,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -20504,12 +20560,12 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>45</v>
@@ -21158,10 +21214,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>15</v>
@@ -21173,12 +21229,12 @@
         <v>17</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4">
         <v>20</v>
